--- a/Recharge/May2021Recharge.xlsx
+++ b/Recharge/May2021Recharge.xlsx
@@ -696,7 +696,7 @@
     <t>DK</t>
   </si>
   <si>
-    <t>BALMIKI</t>
+    <t>BALMIKI/ASHUTOSH</t>
   </si>
   <si>
     <t>Mr Shashi</t>
@@ -761,11 +761,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -784,10 +784,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,23 +807,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,6 +852,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -859,7 +868,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,6 +891,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -889,25 +906,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,7 +922,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,7 +1002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,25 +1020,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +1068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,49 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,7 +1104,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,19 +1140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,7 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,13 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,17 +1211,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,6 +1246,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,23 +1292,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,27 +1308,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,127 +1334,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1551,10 +1551,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1886,11 +1886,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="Q54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P82" sqref="P82"/>
+      <selection pane="bottomRight" activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2034,22 +2034,22 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>491900</v>
+        <v>636900</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(G3:G121)</f>
-        <v>301600</v>
+        <v>452400</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="24">
         <f>G2/1.04+H2</f>
-        <v>491900</v>
+        <v>636900</v>
       </c>
       <c r="G2" s="15">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>301600</v>
+        <v>452400</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(H3:H121)</f>
@@ -2089,23 +2089,23 @@
       </c>
       <c r="Q2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34320</v>
       </c>
       <c r="R2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42640</v>
       </c>
       <c r="S2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="T2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="U2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
@@ -2192,11 +2192,11 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F2:F18" si="2">G3/1.04+H3</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H3" s="26">
         <v>0</v>
@@ -2213,7 +2213,9 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1">
+        <v>2080</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -2246,11 +2248,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H4" s="26">
         <v>2000</v>
@@ -2270,7 +2272,9 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1">
+        <v>2080</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -2307,11 +2311,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H5" s="26">
         <v>2500</v>
@@ -2329,9 +2333,13 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1">
+        <v>2080</v>
+      </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>2080</v>
+      </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -2368,11 +2376,11 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H6" s="26">
         <v>2000</v>
@@ -2391,9 +2399,13 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>2080</v>
+      </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1">
+        <v>2080</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -2429,11 +2441,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>19760</v>
       </c>
       <c r="H7" s="26">
         <v>16000</v>
@@ -2463,8 +2475,12 @@
         <v>2080</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="R7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2080</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2560,11 +2576,11 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H9" s="26">
         <v>0</v>
@@ -2584,7 +2600,9 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1">
+        <v>2080</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -2847,11 +2865,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>14560</v>
       </c>
       <c r="H14" s="26">
         <v>5500</v>
@@ -2870,9 +2888,13 @@
         <v>2080</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>2080</v>
+      </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>2080</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2910,11 +2932,11 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H15" s="26">
         <v>2000</v>
@@ -2931,7 +2953,9 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <v>2080</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -3025,11 +3049,11 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H17" s="26">
         <v>3000</v>
@@ -3042,7 +3066,9 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>2080</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3139,11 +3165,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H19" s="26">
         <v>0</v>
@@ -3161,7 +3187,9 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1">
+        <v>2080</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -3251,11 +3279,11 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H21" s="26">
         <v>0</v>
@@ -3270,7 +3298,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1">
+        <v>2080</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -3363,11 +3393,11 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H23" s="26">
         <v>0</v>
@@ -3380,7 +3410,9 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>2080</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3531,11 +3563,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H26" s="26">
         <v>0</v>
@@ -3554,7 +3586,9 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1">
+        <v>2080</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -3644,11 +3678,11 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="H28" s="26">
         <v>1000</v>
@@ -3667,7 +3701,9 @@
         <v>2080</v>
       </c>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1">
+        <v>2080</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3762,11 +3798,11 @@
       </c>
       <c r="F30" s="12">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="H30" s="26">
         <v>0</v>
@@ -3782,7 +3818,9 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="R30" s="1">
+        <v>2080</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -3818,11 +3856,11 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H31" s="26">
         <v>0</v>
@@ -3838,7 +3876,9 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="T31" s="1">
+        <v>2080</v>
+      </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -3872,11 +3912,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" si="3"/>
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>16640</v>
       </c>
       <c r="H32" s="26">
         <v>6500</v>
@@ -3895,10 +3935,16 @@
         <v>2080</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1">
+        <v>2080</v>
+      </c>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="S32" s="1">
+        <v>2080</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2080</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -3932,11 +3978,11 @@
       </c>
       <c r="F33" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H33" s="26">
         <v>0</v>
@@ -3953,7 +3999,9 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="1">
+        <v>2080</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -4046,11 +4094,11 @@
       </c>
       <c r="F35" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H35" s="26">
         <v>0</v>
@@ -4066,7 +4114,9 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="R35" s="1">
+        <v>2080</v>
+      </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -4156,11 +4206,11 @@
       </c>
       <c r="F37" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>13520</v>
       </c>
       <c r="H37" s="26">
         <v>0</v>
@@ -4177,9 +4227,15 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="R37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="T37" s="1">
+        <v>2080</v>
+      </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -4269,11 +4325,11 @@
       </c>
       <c r="F39" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H39" s="26">
         <v>0</v>
@@ -4291,7 +4347,9 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="R39" s="1">
+        <v>2080</v>
+      </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -4496,11 +4554,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>13520</v>
       </c>
       <c r="H43" s="26">
         <v>4000</v>
@@ -4521,9 +4579,13 @@
       <c r="P43" s="1">
         <v>2080</v>
       </c>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="1">
+        <v>2080</v>
+      </c>
       <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="S43" s="1">
+        <v>2080</v>
+      </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -4614,11 +4676,11 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H45" s="26">
         <v>0</v>
@@ -4636,7 +4698,9 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="R45" s="1">
+        <v>2080</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -4672,11 +4736,11 @@
       </c>
       <c r="F46" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G46" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H46" s="26">
         <v>3000</v>
@@ -4696,7 +4760,9 @@
         <v>2080</v>
       </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="R46" s="1">
+        <v>2080</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -4732,11 +4798,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>9360</v>
       </c>
       <c r="H47" s="26">
         <v>3000</v>
@@ -4755,8 +4821,12 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="S47" s="1">
+        <v>2080</v>
+      </c>
+      <c r="T47" s="1">
+        <v>2080</v>
+      </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -4844,11 +4914,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>17680</v>
       </c>
       <c r="H49" s="26">
         <v>5000</v>
@@ -4871,10 +4941,16 @@
       <c r="P49" s="1">
         <v>2080</v>
       </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="Q49" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R49" s="1">
+        <v>2080</v>
+      </c>
       <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="T49" s="1">
+        <v>2080</v>
+      </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
@@ -5072,11 +5148,11 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
@@ -5100,7 +5176,9 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="T53" s="1">
+        <v>2080</v>
+      </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -5134,11 +5212,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>15600</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
@@ -5164,9 +5242,13 @@
         <v>2080</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="R54" s="1">
+        <v>2080</v>
+      </c>
       <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="T54" s="1">
+        <v>2080</v>
+      </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
@@ -5423,11 +5505,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>15600</v>
       </c>
       <c r="H59" s="26">
         <v>10000</v>
@@ -5446,9 +5528,15 @@
       <c r="P59" s="1">
         <v>2080</v>
       </c>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+      <c r="Q59" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R59" s="1">
+        <v>2080</v>
+      </c>
+      <c r="S59" s="1">
+        <v>2080</v>
+      </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -5596,11 +5684,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>13520</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
@@ -5618,9 +5706,13 @@
         <v>4160</v>
       </c>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="1">
+        <v>2080</v>
+      </c>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="T62" s="1">
+        <v>2080</v>
+      </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
@@ -5715,11 +5807,11 @@
       </c>
       <c r="F64" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H64" s="26">
         <v>0</v>
@@ -5734,7 +5826,9 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="S64" s="1">
+        <v>2080</v>
+      </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -5886,11 +5980,11 @@
       </c>
       <c r="F67" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G67" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H67" s="26">
         <v>0</v>
@@ -5908,7 +6002,9 @@
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="R67" s="1">
+        <v>2080</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -5944,11 +6040,11 @@
       </c>
       <c r="F68" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H68" s="26">
         <v>0</v>
@@ -5965,7 +6061,9 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
+      <c r="S68" s="1">
+        <v>2080</v>
+      </c>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
@@ -6000,11 +6098,11 @@
       </c>
       <c r="F69" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H69" s="26">
         <v>0</v>
@@ -6017,7 +6115,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="Q69" s="1">
+        <v>2080</v>
+      </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -6108,11 +6208,11 @@
       </c>
       <c r="F71" s="12">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H71" s="26">
         <v>1000</v>
@@ -6126,7 +6226,9 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="R71" s="1">
+        <v>2080</v>
+      </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -6162,11 +6264,11 @@
       </c>
       <c r="F72" s="12">
         <f t="shared" si="3"/>
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="4"/>
-        <v>16640</v>
+        <v>32240</v>
       </c>
       <c r="H72" s="26">
         <v>10000</v>
@@ -6189,10 +6291,16 @@
       <c r="P72" s="1">
         <v>2080</v>
       </c>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="Q72" s="1">
+        <v>5200</v>
+      </c>
+      <c r="R72" s="1">
+        <v>5200</v>
+      </c>
       <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
+      <c r="T72" s="1">
+        <v>5200</v>
+      </c>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
@@ -6226,11 +6334,11 @@
       </c>
       <c r="F73" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="4"/>
-        <v>7280</v>
+        <v>13520</v>
       </c>
       <c r="H73" s="26">
         <v>0</v>
@@ -6248,10 +6356,16 @@
         <v>2080</v>
       </c>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="Q73" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R73" s="1">
+        <v>2080</v>
+      </c>
       <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
+      <c r="T73" s="1">
+        <v>2080</v>
+      </c>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -6286,11 +6400,11 @@
       </c>
       <c r="F74" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G74" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
@@ -6308,7 +6422,9 @@
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
+      <c r="S74" s="1">
+        <v>2080</v>
+      </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
@@ -6455,11 +6571,11 @@
       </c>
       <c r="F77" s="12">
         <f t="shared" si="3"/>
-        <v>6300</v>
+        <v>8300</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H77" s="26">
         <v>2300</v>
@@ -6477,7 +6593,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="1">
+        <v>2080</v>
+      </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -6514,11 +6632,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>14560</v>
       </c>
       <c r="H78" s="26">
         <v>3000</v>
@@ -6537,10 +6655,16 @@
         <v>2080</v>
       </c>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="Q78" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R78" s="1">
+        <v>2080</v>
+      </c>
       <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
+      <c r="T78" s="1">
+        <v>2080</v>
+      </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
@@ -6685,11 +6809,11 @@
       </c>
       <c r="F81" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H81" s="26">
         <v>2000</v>
@@ -6706,8 +6830,12 @@
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
+      <c r="S81" s="1">
+        <v>2080</v>
+      </c>
+      <c r="T81" s="1">
+        <v>2080</v>
+      </c>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
@@ -6794,11 +6922,11 @@
       </c>
       <c r="F83" s="12">
         <f t="shared" ref="F83:F96" si="5">G83/1.04+H83</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G83" s="12">
         <f t="shared" si="4"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="H83" s="26">
         <v>0</v>
@@ -6814,7 +6942,9 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
+      <c r="R83" s="1">
+        <v>2080</v>
+      </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -6903,11 +7033,11 @@
       </c>
       <c r="F85" s="12">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>11440</v>
       </c>
       <c r="H85" s="26">
         <v>5000</v>
@@ -6922,10 +7052,16 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="Q85" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R85" s="11">
+        <v>2080</v>
+      </c>
       <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
+      <c r="T85" s="1">
+        <v>2080</v>
+      </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
@@ -8053,11 +8189,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q66" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
+      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8204,14 +8340,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>279400</v>
+        <v>342400</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>279400</v>
+        <v>342400</v>
       </c>
       <c r="I2" s="12">
         <f>SUM(I3:I121)</f>
@@ -8247,23 +8383,23 @@
       </c>
       <c r="Q2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="R2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="S2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="T2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="U2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
@@ -8538,7 +8674,7 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="20">
         <v>2000</v>
@@ -8556,7 +8692,9 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="20">
+        <v>2000</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -9007,7 +9145,7 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="I14" s="20">
         <v>1500</v>
@@ -9028,8 +9166,12 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="R14" s="20">
+        <v>3000</v>
+      </c>
+      <c r="S14" s="20">
+        <v>1000</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -9419,7 +9561,7 @@
       </c>
       <c r="H21" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -9431,7 +9573,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="20">
+        <v>2000</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -9815,7 +9959,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -9831,7 +9975,9 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="20">
+        <v>3000</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -9985,7 +10131,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -9998,7 +10144,9 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="T31" s="20">
+        <v>2000</v>
+      </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -10201,7 +10349,7 @@
       </c>
       <c r="H35" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -10217,7 +10365,9 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
+      <c r="U35" s="20">
+        <v>1000</v>
+      </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -10307,7 +10457,7 @@
       </c>
       <c r="H37" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -10319,7 +10469,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="20">
+        <v>2000</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -10799,7 +10951,7 @@
       </c>
       <c r="H46" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -10812,7 +10964,9 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="R46" s="20">
+        <v>2000</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -10975,7 +11129,7 @@
       </c>
       <c r="H49" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -10988,7 +11142,9 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="R49" s="20">
+        <v>5000</v>
+      </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -11196,7 +11352,7 @@
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -11211,7 +11367,9 @@
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="20">
+        <v>2000</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -11249,7 +11407,7 @@
       </c>
       <c r="H54" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -11262,7 +11420,9 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="R54" s="20">
+        <v>8000</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -11306,7 +11466,7 @@
       </c>
       <c r="H55" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -11318,7 +11478,9 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
+      <c r="S55" s="20">
+        <v>2000</v>
+      </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -11811,7 +11973,7 @@
       </c>
       <c r="H64" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -11824,7 +11986,9 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="T64" s="20">
+        <v>2000</v>
+      </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
@@ -11869,7 +12033,7 @@
       </c>
       <c r="H65" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I65" s="20">
         <v>2000</v>
@@ -11883,7 +12047,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="Q65" s="20">
+        <v>2000</v>
+      </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -11982,7 +12148,7 @@
       </c>
       <c r="H67" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -11995,8 +12161,12 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
+      <c r="R67" s="20">
+        <v>2000</v>
+      </c>
+      <c r="S67" s="20">
+        <v>1000</v>
+      </c>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -12237,7 +12407,7 @@
       </c>
       <c r="H72" s="12">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="I72" s="1">
         <v>10000</v>
@@ -12253,7 +12423,9 @@
         <v>4000</v>
       </c>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="20">
+        <v>7000</v>
+      </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -12295,7 +12467,7 @@
       </c>
       <c r="H73" s="12">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="20">
@@ -12309,7 +12481,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="Q73" s="20">
+        <v>2000</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -12357,7 +12531,7 @@
       </c>
       <c r="H74" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -12369,7 +12543,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="Q74" s="20">
+        <v>2000</v>
+      </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -12518,7 +12694,7 @@
       </c>
       <c r="H77" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -12531,7 +12707,9 @@
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="20">
+        <v>2000</v>
+      </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -12738,7 +12916,7 @@
       </c>
       <c r="H81" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -12754,7 +12932,9 @@
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
+      <c r="S81" s="20">
+        <v>2000</v>
+      </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -12938,7 +13118,7 @@
       </c>
       <c r="H85" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -12953,7 +13133,9 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
+      <c r="T85" s="20">
+        <v>6000</v>
+      </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
@@ -14062,11 +14244,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -14102,11 +14284,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>212500</v>
+        <v>294500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>212500</v>
+        <v>294500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14121,7 +14303,7 @@
       </c>
       <c r="D3" s="10">
         <f>Orders!F3-Collection!H3</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14136,7 +14318,7 @@
       </c>
       <c r="D4" s="10">
         <f>Orders!F4-Collection!H4</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14151,7 +14333,7 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14166,7 +14348,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14181,10 +14363,10 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -14211,10 +14393,10 @@
       </c>
       <c r="D9" s="10">
         <f>Orders!F9-Collection!H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -14259,7 +14441,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" hidden="1" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -14301,7 +14483,7 @@
       </c>
       <c r="D15" s="10">
         <f>Orders!F15-Collection!H15</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -14331,7 +14513,7 @@
       </c>
       <c r="D17" s="10">
         <f>Orders!F17-Collection!H17</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -14361,10 +14543,10 @@
       </c>
       <c r="D19" s="10">
         <f>Orders!F19-Collection!H19</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -14379,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -14421,10 +14603,10 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -14466,7 +14648,7 @@
       </c>
       <c r="D26" s="10">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14496,10 +14678,10 @@
       </c>
       <c r="D28" s="10">
         <f>Orders!F28-Collection!H28</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -14526,10 +14708,10 @@
       </c>
       <c r="D30" s="10">
         <f>Orders!F30-Collection!H30</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -14556,7 +14738,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>8500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -14571,10 +14753,10 @@
       </c>
       <c r="D33" s="10">
         <f>Orders!F33-Collection!H33</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -14601,10 +14783,10 @@
       </c>
       <c r="D35" s="10">
         <f>Orders!F35-Collection!H35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -14631,10 +14813,10 @@
       </c>
       <c r="D37" s="10">
         <f>Orders!F37-Collection!H37</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -14661,10 +14843,10 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -14694,7 +14876,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -14721,10 +14903,10 @@
       </c>
       <c r="D43" s="10">
         <f>Orders!F43-Collection!H43</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -14749,7 +14931,7 @@
       </c>
       <c r="D45" s="10">
         <f>Orders!F45-Collection!H45</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -14779,10 +14961,10 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -14809,7 +14991,7 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -14827,7 +15009,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
@@ -14842,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>64</v>
       </c>
@@ -14882,10 +15064,10 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
@@ -14895,7 +15077,7 @@
       </c>
       <c r="D55" s="10">
         <f>Orders!F55-Collection!H55</f>
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -14913,7 +15095,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>64</v>
       </c>
@@ -14955,10 +15137,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -14973,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
@@ -15000,7 +15182,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -15018,7 +15200,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>82</v>
       </c>
@@ -15033,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
@@ -15045,7 +15227,7 @@
       </c>
       <c r="D65" s="10">
         <f>Orders!F65-Collection!H65</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15075,7 +15257,7 @@
       </c>
       <c r="D67" s="10">
         <f>Orders!F67-Collection!H67</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -15090,7 +15272,7 @@
       </c>
       <c r="D68" s="10">
         <f>Orders!F68-Collection!H68</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -15105,10 +15287,10 @@
       </c>
       <c r="D69" s="10">
         <f>Orders!F69-Collection!H69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>93</v>
       </c>
@@ -15135,7 +15317,7 @@
       </c>
       <c r="D71" s="10">
         <f>Orders!F71-Collection!H71</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -15150,7 +15332,7 @@
       </c>
       <c r="D72" s="10">
         <f>Orders!F72-Collection!H72</f>
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15165,7 +15347,7 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -15183,7 +15365,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -15240,7 +15422,7 @@
       </c>
       <c r="D78" s="10">
         <f>Orders!F78-Collection!H78</f>
-        <v>2000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -15258,7 +15440,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -15281,10 +15463,10 @@
       </c>
       <c r="D81" s="10">
         <f>Orders!F81-Collection!H81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -15307,10 +15489,10 @@
       </c>
       <c r="D83" s="10">
         <f>Orders!F83-Collection!H83</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -15321,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" hidden="1" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>114</v>
       </c>
@@ -15336,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -15351,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -15366,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" hidden="1" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -15381,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -15392,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="8"/>
       <c r="B90" s="8">
         <v>9905739212</v>
@@ -15405,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -15416,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" hidden="1" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="8">
         <v>9015378357</v>
@@ -15429,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -15453,7 +15635,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -15464,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -15477,6 +15659,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1000"/>
+        <filter val="1100"/>
+        <filter val="1600"/>
+        <filter val="2000"/>
+        <filter val="2300"/>
+        <filter val="2500"/>
+        <filter val="3000"/>
+        <filter val="4000"/>
+        <filter val="4500"/>
+        <filter val="5000"/>
+        <filter val="6000"/>
+        <filter val="7000"/>
+        <filter val="8000"/>
+        <filter val="10000"/>
+        <filter val="14500"/>
+        <filter val="15000"/>
+        <filter val="25000"/>
+        <filter val="294500"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/May2021Recharge.xlsx
+++ b/Recharge/May2021Recharge.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="213">
   <si>
     <t>S.No.</t>
   </si>
@@ -549,6 +549,9 @@
     <t>NAVIN KUM</t>
   </si>
   <si>
+    <t>SUCHENDRA</t>
+  </si>
+  <si>
     <t>Naveen</t>
   </si>
   <si>
@@ -615,6 +618,9 @@
     <t>Arman Ala</t>
   </si>
   <si>
+    <t>VIKESH</t>
+  </si>
+  <si>
     <t>Sonu/Rupa 9708329918</t>
   </si>
   <si>
@@ -624,9 +630,15 @@
     <t>8709954402/6207783075</t>
   </si>
   <si>
+    <t>SHIV PRAK</t>
+  </si>
+  <si>
     <t>RAJESH(Bandhan Bank)</t>
   </si>
   <si>
+    <t>NAUSHAD</t>
+  </si>
+  <si>
     <t>HARENDRA</t>
   </si>
   <si>
@@ -667,6 +679,9 @@
   </si>
   <si>
     <t>Navin Kr. Ojha</t>
+  </si>
+  <si>
+    <t>Navin Kr. Ojha/SANTOSH SBI</t>
   </si>
   <si>
     <t>UMESH PRA</t>
@@ -761,11 +776,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -784,38 +799,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,15 +836,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,34 +875,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,14 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,6 +901,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,19 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,19 +1029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,72 +1065,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1134,7 +1077,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,13 +1119,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,13 +1161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,16 +1227,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,23 +1244,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,25 +1275,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,18 +1299,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,130 +1346,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1551,10 +1566,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1886,11 +1901,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="Q54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="V75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T74" sqref="T74"/>
+      <selection pane="bottomRight" activeCell="Y94" sqref="Y94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2034,22 +2049,22 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>636900</v>
+        <v>840900</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(G3:G121)</f>
-        <v>452400</v>
+        <v>664560</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="24">
         <f>G2/1.04+H2</f>
-        <v>636900</v>
+        <v>840900</v>
       </c>
       <c r="G2" s="15">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>452400</v>
+        <v>664560</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(H3:H121)</f>
@@ -2105,27 +2120,27 @@
       </c>
       <c r="U2" s="12">
         <f t="shared" si="1"/>
-        <v>4160</v>
+        <v>33280</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="X2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36400</v>
       </c>
       <c r="Y2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56160</v>
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="1"/>
@@ -2248,11 +2263,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H4" s="26">
         <v>2000</v>
@@ -2279,7 +2294,9 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="Y4" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -2311,11 +2328,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H5" s="26">
         <v>2500</v>
@@ -2340,10 +2357,14 @@
       <c r="T5" s="1">
         <v>2080</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1">
+        <v>2080</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="X5" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -2376,11 +2397,11 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>16640</v>
       </c>
       <c r="H6" s="26">
         <v>2000</v>
@@ -2407,9 +2428,13 @@
         <v>2080</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>2080</v>
+      </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -2441,11 +2466,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>19760</v>
+        <v>30160</v>
       </c>
       <c r="H7" s="26">
         <v>16000</v>
@@ -2482,10 +2507,18 @@
         <v>2080</v>
       </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="U7" s="1">
+        <v>4160</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -2518,11 +2551,11 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H8" s="26">
         <v>2000</v>
@@ -2543,8 +2576,12 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="U8" s="1">
+        <v>2080</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2080</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -2639,11 +2676,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>9360</v>
       </c>
       <c r="H10" s="26">
         <v>5000</v>
@@ -2663,9 +2700,13 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1">
+        <v>2080</v>
+      </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2695,11 +2736,11 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H11" s="26">
         <v>2000</v>
@@ -2718,7 +2759,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1">
+        <v>2080</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -2749,11 +2792,11 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H12" s="26">
         <v>0</v>
@@ -2777,7 +2820,9 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -2807,11 +2852,11 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H13" s="26">
         <v>0</v>
@@ -2832,11 +2877,15 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>2080</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -2865,11 +2914,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>18720</v>
       </c>
       <c r="H14" s="26">
         <v>5500</v>
@@ -2896,9 +2945,13 @@
         <v>2080</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1">
+        <v>2080</v>
+      </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>2080</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -2932,11 +2985,11 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H15" s="26">
         <v>2000</v>
@@ -2961,7 +3014,9 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2990,11 +3045,11 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="H16" s="26">
         <v>2000</v>
@@ -3014,10 +3069,14 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1">
+        <v>1040</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1">
+        <v>1040</v>
+      </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -3165,11 +3224,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H19" s="26">
         <v>0</v>
@@ -3193,7 +3252,9 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -3393,11 +3454,11 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>8320</v>
       </c>
       <c r="H23" s="26">
         <v>0</v>
@@ -3417,11 +3478,17 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="V23" s="1">
+        <v>2080</v>
+      </c>
+      <c r="W23" s="1">
+        <v>2080</v>
+      </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -3449,11 +3516,11 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="H24" s="26">
         <v>0</v>
@@ -3474,7 +3541,9 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1">
+        <v>2080</v>
+      </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -3563,11 +3632,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H26" s="26">
         <v>0</v>
@@ -3591,7 +3660,9 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1">
+        <v>5200</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -3678,11 +3749,11 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>11440</v>
       </c>
       <c r="H28" s="26">
         <v>1000</v>
@@ -3707,11 +3778,14 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="U28" s="1">
+        <v>2080</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -3740,11 +3814,11 @@
       </c>
       <c r="F29" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H29" s="26">
         <v>0</v>
@@ -3769,7 +3843,9 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -3798,11 +3874,11 @@
       </c>
       <c r="F30" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>7280</v>
       </c>
       <c r="H30" s="26">
         <v>0</v>
@@ -3824,9 +3900,13 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="V30" s="1">
+        <v>2080</v>
+      </c>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="X30" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3856,11 +3936,11 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H31" s="26">
         <v>0</v>
@@ -3882,7 +3962,9 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="X31" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -3912,11 +3994,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" si="3"/>
-        <v>22500</v>
+        <v>30500</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>16640</v>
+        <v>24960</v>
       </c>
       <c r="H32" s="26">
         <v>6500</v>
@@ -3945,11 +4027,19 @@
       <c r="T32" s="1">
         <v>2080</v>
       </c>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1">
+        <v>2080</v>
+      </c>
       <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="W32" s="1">
+        <v>2080</v>
+      </c>
+      <c r="X32" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -3978,11 +4068,11 @@
       </c>
       <c r="F33" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H33" s="26">
         <v>0</v>
@@ -4004,7 +4094,9 @@
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="V33" s="1">
+        <v>2080</v>
+      </c>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -4206,11 +4298,11 @@
       </c>
       <c r="F37" s="12">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>13520</v>
+        <v>19760</v>
       </c>
       <c r="H37" s="26">
         <v>0</v>
@@ -4236,11 +4328,17 @@
       <c r="T37" s="1">
         <v>2080</v>
       </c>
-      <c r="U37" s="1"/>
+      <c r="U37" s="1">
+        <v>2080</v>
+      </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="X37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -4325,11 +4423,11 @@
       </c>
       <c r="F39" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H39" s="26">
         <v>0</v>
@@ -4355,7 +4453,9 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
+      <c r="X39" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -4388,11 +4488,11 @@
       </c>
       <c r="F40" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
@@ -4412,7 +4512,9 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="V40" s="1">
+        <v>2080</v>
+      </c>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -4444,11 +4546,11 @@
       </c>
       <c r="F41" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H41" s="26">
         <v>0</v>
@@ -4468,10 +4570,14 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="1">
+        <v>2080</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -4500,11 +4606,11 @@
       </c>
       <c r="F42" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H42" s="26">
         <v>2000</v>
@@ -4525,7 +4631,9 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
+      <c r="Y42" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -4554,11 +4662,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>13520</v>
+        <v>21840</v>
       </c>
       <c r="H43" s="26">
         <v>4000</v>
@@ -4587,11 +4695,19 @@
         <v>2080</v>
       </c>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
+      <c r="U43" s="1">
+        <v>2080</v>
+      </c>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
+      <c r="W43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="X43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -4620,11 +4736,11 @@
       </c>
       <c r="F44" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H44" s="26">
         <v>0</v>
@@ -4644,7 +4760,9 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="V44" s="1">
+        <v>2080</v>
+      </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -4676,11 +4794,11 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H45" s="26">
         <v>0</v>
@@ -4703,12 +4821,18 @@
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="U45" s="1">
+        <v>2080</v>
+      </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
+      <c r="X45" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
+      <c r="Z45" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
@@ -4736,11 +4860,11 @@
       </c>
       <c r="F46" s="12">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="G46" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H46" s="26">
         <v>3000</v>
@@ -4769,7 +4893,9 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -4798,11 +4924,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="H47" s="26">
         <v>3000</v>
@@ -4828,7 +4954,9 @@
         <v>2080</v>
       </c>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="1">
+        <v>2080</v>
+      </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -4860,11 +4988,11 @@
       </c>
       <c r="F48" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H48" s="26">
         <v>2000</v>
@@ -4883,7 +5011,9 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
+      <c r="W48" s="1">
+        <v>2080</v>
+      </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -4914,11 +5044,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="0"/>
-        <v>17680</v>
+        <v>26000</v>
       </c>
       <c r="H49" s="26">
         <v>5000</v>
@@ -4951,11 +5081,19 @@
       <c r="T49" s="1">
         <v>2080</v>
       </c>
-      <c r="U49" s="1"/>
+      <c r="U49" s="1">
+        <v>2080</v>
+      </c>
       <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
+      <c r="W49" s="1">
+        <v>2080</v>
+      </c>
+      <c r="X49" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -5148,11 +5286,11 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
@@ -5181,7 +5319,9 @@
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
+      <c r="W53" s="1">
+        <v>2080</v>
+      </c>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -5212,11 +5352,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>17680</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
@@ -5253,7 +5393,9 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -5283,11 +5425,11 @@
       </c>
       <c r="F55" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H55" s="26">
         <v>0</v>
@@ -5305,7 +5447,9 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
+      <c r="V55" s="1">
+        <v>2080</v>
+      </c>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
@@ -5447,11 +5591,11 @@
       </c>
       <c r="F58" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G58" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H58" s="26">
         <v>2000</v>
@@ -5474,9 +5618,13 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
+      <c r="W58" s="1">
+        <v>2080</v>
+      </c>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -5505,11 +5653,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>19760</v>
       </c>
       <c r="H59" s="26">
         <v>10000</v>
@@ -5540,9 +5688,12 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="W59" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -5571,11 +5722,11 @@
       </c>
       <c r="F60" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="G60" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H60" s="26">
         <v>5000</v>
@@ -5596,9 +5747,12 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
+      <c r="W60" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -5684,11 +5838,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="0"/>
-        <v>13520</v>
+        <v>19760</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
@@ -5715,9 +5869,15 @@
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
+      <c r="W62" s="1">
+        <v>2080</v>
+      </c>
+      <c r="X62" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
@@ -5807,11 +5967,11 @@
       </c>
       <c r="F64" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>7280</v>
       </c>
       <c r="H64" s="26">
         <v>0</v>
@@ -5831,7 +5991,9 @@
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
+      <c r="V64" s="1">
+        <v>5200</v>
+      </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
@@ -5866,11 +6028,11 @@
       </c>
       <c r="F65" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G65" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H65" s="21">
         <v>2000</v>
@@ -5894,7 +6056,9 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
+      <c r="X65" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6040,11 +6204,11 @@
       </c>
       <c r="F68" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H68" s="26">
         <v>0</v>
@@ -6067,9 +6231,13 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
+      <c r="W68" s="1">
+        <v>2080</v>
+      </c>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -6098,11 +6266,11 @@
       </c>
       <c r="F69" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H69" s="26">
         <v>0</v>
@@ -6125,7 +6293,9 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
+      <c r="Y69" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
@@ -6264,11 +6434,11 @@
       </c>
       <c r="F72" s="12">
         <f t="shared" si="3"/>
-        <v>41000</v>
+        <v>51000</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="4"/>
-        <v>32240</v>
+        <v>42640</v>
       </c>
       <c r="H72" s="26">
         <v>10000</v>
@@ -6303,9 +6473,13 @@
       </c>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
+      <c r="W72" s="1">
+        <v>5200</v>
+      </c>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="Y72" s="1">
+        <v>5200</v>
+      </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
@@ -6334,11 +6508,11 @@
       </c>
       <c r="F73" s="12">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="4"/>
-        <v>13520</v>
+        <v>19760</v>
       </c>
       <c r="H73" s="26">
         <v>0</v>
@@ -6366,11 +6540,17 @@
       <c r="T73" s="1">
         <v>2080</v>
       </c>
-      <c r="U73" s="1"/>
+      <c r="U73" s="1">
+        <v>2080</v>
+      </c>
       <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
+      <c r="W73" s="1">
+        <v>2080</v>
+      </c>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="Y73" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
@@ -6400,11 +6580,11 @@
       </c>
       <c r="F74" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G74" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
@@ -6431,7 +6611,9 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
+      <c r="Z74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
@@ -6632,11 +6814,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" si="4"/>
-        <v>14560</v>
+        <v>20800</v>
       </c>
       <c r="H78" s="26">
         <v>3000</v>
@@ -6665,11 +6847,17 @@
       <c r="T78" s="1">
         <v>2080</v>
       </c>
-      <c r="U78" s="1"/>
+      <c r="U78" s="1">
+        <v>2080</v>
+      </c>
       <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
+      <c r="W78" s="1">
+        <v>2080</v>
+      </c>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
+      <c r="Y78" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
@@ -7033,11 +7221,11 @@
       </c>
       <c r="F85" s="12">
         <f t="shared" si="5"/>
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="4"/>
-        <v>11440</v>
+        <v>17680</v>
       </c>
       <c r="H85" s="26">
         <v>5000</v>
@@ -7063,10 +7251,16 @@
         <v>2080</v>
       </c>
       <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
+      <c r="V85" s="1">
+        <v>2080</v>
+      </c>
+      <c r="W85" s="1">
+        <v>2080</v>
+      </c>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
+      <c r="Y85" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
@@ -7095,11 +7289,11 @@
       </c>
       <c r="F86" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G86" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H86" s="26">
         <v>0</v>
@@ -7119,7 +7313,9 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
+      <c r="X86" s="1">
+        <v>5200</v>
+      </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
@@ -7208,11 +7404,11 @@
       </c>
       <c r="F88" s="12">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G88" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H88" s="26">
         <v>0</v>
@@ -7233,7 +7429,9 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
+      <c r="W88" s="1">
+        <v>2080</v>
+      </c>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
@@ -7314,11 +7512,11 @@
       </c>
       <c r="F90" s="12">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G90" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H90" s="26">
         <v>0</v>
@@ -7340,10 +7538,14 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="V90" s="1">
+        <v>1040</v>
+      </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
+      <c r="Y90" s="1">
+        <v>1040</v>
+      </c>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
@@ -7530,11 +7732,11 @@
       </c>
       <c r="F94" s="12">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H94" s="26">
         <v>1000</v>
@@ -7557,7 +7759,9 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="1">
+        <v>1040</v>
+      </c>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
@@ -8189,11 +8393,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
+      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8340,14 +8544,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>342400</v>
+        <v>595400</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>342400</v>
+        <v>595400</v>
       </c>
       <c r="I2" s="12">
         <f>SUM(I3:I121)</f>
@@ -8399,23 +8603,23 @@
       </c>
       <c r="U2" s="12">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>23500</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="X2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="Y2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="1"/>
@@ -8498,7 +8702,7 @@
       </c>
       <c r="H3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -8513,7 +8717,9 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="20">
+        <v>2000</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -8556,7 +8762,7 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I4" s="20">
         <v>2000</v>
@@ -8575,7 +8781,9 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="20">
+        <v>2000</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -8612,7 +8820,7 @@
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -8631,7 +8839,9 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="V5" s="20">
+        <v>6000</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -8674,7 +8884,7 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="I6" s="20">
         <v>2000</v>
@@ -8699,7 +8909,9 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="20">
+        <v>4000</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -8742,7 +8954,7 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8758,10 +8970,14 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="20">
+        <v>10000</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="X7" s="20">
+        <v>7000</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -8799,7 +9015,7 @@
       </c>
       <c r="H8" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I8" s="1">
         <v>2000</v>
@@ -8821,7 +9037,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="20">
+        <v>4000</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -8860,7 +9078,7 @@
       </c>
       <c r="H9" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -8879,7 +9097,9 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="1">
+        <v>2000</v>
+      </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -8902,6 +9122,9 @@
       </c>
       <c r="C10" s="11">
         <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="E10" s="11">
         <v>7004365158</v>
@@ -8957,13 +9180,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="11">
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E11" s="11">
         <v>9973022718</v>
@@ -8976,7 +9199,7 @@
       </c>
       <c r="H11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -8993,7 +9216,9 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
+      <c r="X11" s="20">
+        <v>4000</v>
+      </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -9072,7 +9297,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E13" s="11">
         <v>8340182577</v>
@@ -9126,13 +9351,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E14" s="11">
         <v>7004740439</v>
@@ -9145,7 +9370,7 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="I14" s="20">
         <v>1500</v>
@@ -9173,9 +9398,13 @@
         <v>1000</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="20">
+        <v>1500</v>
+      </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="W14" s="20">
+        <v>2000</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -9255,13 +9484,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="11">
         <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" s="11">
         <v>7321004323</v>
@@ -9274,7 +9503,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -9291,10 +9520,14 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1">
+        <v>1000</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="20">
+        <v>1000</v>
+      </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -9318,7 +9551,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="11">
         <v>7903378748</v>
@@ -9422,13 +9655,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" s="11">
         <v>9608475282</v>
@@ -9441,7 +9674,7 @@
       </c>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9460,7 +9693,9 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="20">
+        <v>2500</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -9482,13 +9717,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E20" s="11">
         <v>9661555592</v>
@@ -9542,13 +9777,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E21" s="11">
         <v>8340523512</v>
@@ -9607,7 +9842,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22" s="11">
         <v>8825310472</v>
@@ -9661,13 +9896,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" s="11">
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E23" s="11">
         <v>7004478123</v>
@@ -9773,13 +10008,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="11">
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E25" s="11">
         <v>7006041121</v>
@@ -9831,13 +10066,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C26" s="11">
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" s="11">
         <v>8709658240</v>
@@ -9850,7 +10085,7 @@
       </c>
       <c r="H26" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -9867,7 +10102,9 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="20">
+        <v>7000</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -9946,7 +10183,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" s="11">
         <v>9973040600</v>
@@ -9959,7 +10196,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -9979,7 +10216,9 @@
         <v>3000</v>
       </c>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
+      <c r="U28" s="20">
+        <v>3000</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -10007,7 +10246,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29" s="11">
         <v>9973345687</v>
@@ -10076,7 +10315,7 @@
       </c>
       <c r="H30" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -10094,7 +10333,9 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1">
+        <v>7000</v>
+      </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -10115,13 +10356,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -10131,7 +10372,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -10150,7 +10391,9 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="X31" s="20">
+        <v>2000</v>
+      </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -10172,13 +10415,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>36</v>
@@ -10188,7 +10431,7 @@
       </c>
       <c r="H32" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -10205,7 +10448,9 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="20">
+        <v>15000</v>
+      </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -10239,7 +10484,7 @@
       </c>
       <c r="H33" s="12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -10259,7 +10504,9 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1">
+        <v>3000</v>
+      </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -10280,13 +10527,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>51</v>
@@ -10395,7 +10642,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E36" s="11">
         <v>7654800030</v>
@@ -10449,6 +10696,9 @@
       <c r="C37" s="11">
         <v>35</v>
       </c>
+      <c r="D37" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="F37" s="11" t="s">
         <v>51</v>
       </c>
@@ -10457,7 +10707,7 @@
       </c>
       <c r="H37" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -10476,10 +10726,14 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="V37" s="20">
+        <v>8000</v>
+      </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="20">
+        <v>4000</v>
+      </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -10551,13 +10805,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -10610,16 +10864,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -10629,7 +10883,7 @@
       </c>
       <c r="H40" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -10649,7 +10903,9 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="Y40" s="20">
+        <v>2000</v>
+      </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -10672,6 +10928,9 @@
       <c r="C41" s="11">
         <v>39</v>
       </c>
+      <c r="D41" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="F41" s="11" t="s">
         <v>51</v>
       </c>
@@ -10680,7 +10939,7 @@
       </c>
       <c r="H41" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -10698,7 +10957,9 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="20">
+        <v>6000</v>
+      </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -10722,7 +10983,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>51</v>
@@ -10775,6 +11036,9 @@
       <c r="C43" s="11">
         <v>41</v>
       </c>
+      <c r="D43" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="E43" s="11">
         <v>8210095108</v>
       </c>
@@ -10786,7 +11050,7 @@
       </c>
       <c r="H43" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -10804,7 +11068,9 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+      <c r="W43" s="20">
+        <v>12000</v>
+      </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -10830,7 +11096,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>51</v>
@@ -10840,7 +11106,7 @@
       </c>
       <c r="H44" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -10860,7 +11126,9 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
+      <c r="Y44" s="20">
+        <v>2000</v>
+      </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -10884,7 +11152,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>51</v>
@@ -10894,7 +11162,7 @@
       </c>
       <c r="H45" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -10911,7 +11179,9 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="V45" s="20">
+        <v>6000</v>
+      </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -10935,13 +11205,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -10997,7 +11267,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>64</v>
@@ -11007,7 +11277,7 @@
       </c>
       <c r="H47" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I47" s="20">
         <v>3000</v>
@@ -11026,7 +11296,9 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="20">
+        <v>4000</v>
+      </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -11050,13 +11322,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E48" s="11">
         <v>7004729703</v>
@@ -11069,7 +11341,7 @@
       </c>
       <c r="H48" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -11087,7 +11359,9 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
+      <c r="W48" s="20">
+        <v>2000</v>
+      </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -11110,13 +11384,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -11129,7 +11403,7 @@
       </c>
       <c r="H49" s="12">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -11150,7 +11424,9 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
+      <c r="X49" s="20">
+        <v>10000</v>
+      </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
@@ -11172,13 +11448,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -11230,13 +11506,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -11336,13 +11612,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -11450,13 +11726,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -11507,13 +11783,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -11617,7 +11893,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E58" s="11">
         <v>7004211364</v>
@@ -11630,7 +11906,7 @@
       </c>
       <c r="H58" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -11647,9 +11923,15 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="W58" s="20">
+        <v>2000</v>
+      </c>
+      <c r="X58" s="20">
+        <v>2000</v>
+      </c>
+      <c r="Y58" s="20">
+        <v>2000</v>
+      </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -11670,13 +11952,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -11686,7 +11968,7 @@
       </c>
       <c r="H59" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="20">
@@ -11706,7 +11988,9 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="20">
+        <v>16000</v>
+      </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -11730,7 +12014,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>77</v>
@@ -11740,7 +12024,7 @@
       </c>
       <c r="H60" s="12">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="I60" s="20">
         <v>5000</v>
@@ -11761,8 +12045,12 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
+      <c r="X60" s="20">
+        <v>2000</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -11786,7 +12074,7 @@
         <v>59</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E61" s="11">
         <v>9798805204</v>
@@ -11842,13 +12130,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -11861,7 +12149,7 @@
       </c>
       <c r="H62" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -11879,7 +12167,9 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
+      <c r="W62" s="20">
+        <v>10000</v>
+      </c>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -11954,16 +12244,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
@@ -12014,13 +12304,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
@@ -12078,13 +12368,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C66" s="11">
         <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>88</v>
@@ -12138,7 +12428,7 @@
         <v>65</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>91</v>
@@ -12203,7 +12493,7 @@
       </c>
       <c r="H68" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -12221,7 +12511,9 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="1">
+        <v>10000</v>
+      </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -12252,7 +12544,7 @@
       </c>
       <c r="H69" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -12267,7 +12559,9 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
+      <c r="V69" s="1">
+        <v>2000</v>
+      </c>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
@@ -12353,7 +12647,7 @@
       </c>
       <c r="H71" s="12">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I71" s="1">
         <v>1000</v>
@@ -12373,7 +12667,9 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
+      <c r="Y71" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -12397,7 +12693,7 @@
         <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>93</v>
@@ -12407,7 +12703,7 @@
       </c>
       <c r="H72" s="12">
         <f t="shared" si="2"/>
-        <v>31000</v>
+        <v>46000</v>
       </c>
       <c r="I72" s="1">
         <v>10000</v>
@@ -12430,8 +12726,12 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
+      <c r="V72" s="20">
+        <v>10000</v>
+      </c>
+      <c r="W72" s="20">
+        <v>5000</v>
+      </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -12457,7 +12757,7 @@
         <v>71</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>93</v>
@@ -12467,7 +12767,7 @@
       </c>
       <c r="H73" s="12">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="20">
@@ -12488,7 +12788,9 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
+      <c r="V73" s="1">
+        <v>8000</v>
+      </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
@@ -12512,13 +12814,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E74" s="11">
         <v>8825370430</v>
@@ -12531,7 +12833,7 @@
       </c>
       <c r="H74" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -12551,7 +12853,9 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
+      <c r="W74" s="20">
+        <v>2000</v>
+      </c>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -12675,13 +12979,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E77" s="11">
         <v>6200769032</v>
@@ -12738,13 +13042,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>103</v>
@@ -12754,7 +13058,7 @@
       </c>
       <c r="H78" s="12">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -12771,11 +13075,15 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
+      <c r="U78" s="20">
+        <v>8000</v>
+      </c>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
+      <c r="Y78" s="20">
+        <v>4000</v>
+      </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
@@ -12796,13 +13104,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C79" s="11">
         <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>103</v>
@@ -12812,7 +13120,7 @@
       </c>
       <c r="H79" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -12827,7 +13135,9 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="V79" s="1">
+        <v>4000</v>
+      </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
@@ -12897,16 +13207,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>108</v>
@@ -12916,7 +13226,7 @@
       </c>
       <c r="H81" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -12937,7 +13247,9 @@
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
+      <c r="V81" s="20">
+        <v>2000</v>
+      </c>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
@@ -13017,7 +13329,7 @@
       </c>
       <c r="H83" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -13034,7 +13346,9 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
+      <c r="X83" s="20">
+        <v>3000</v>
+      </c>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
@@ -13102,13 +13416,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>114</v>
@@ -13118,7 +13432,7 @@
       </c>
       <c r="H85" s="12">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -13140,7 +13454,9 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
+      <c r="Y85" s="20">
+        <v>6000</v>
+      </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
@@ -13174,7 +13490,7 @@
       </c>
       <c r="H86" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -13191,7 +13507,9 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
+      <c r="X86" s="1">
+        <v>5000</v>
+      </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
@@ -13213,13 +13531,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C87" s="11">
         <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E87" s="11">
         <v>7903552643</v>
@@ -13274,7 +13592,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E88" s="11">
         <v>9911430509</v>
@@ -13287,7 +13605,7 @@
       </c>
       <c r="H88" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -13306,7 +13624,9 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
+      <c r="X88" s="20">
+        <v>2000</v>
+      </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
@@ -13374,20 +13694,20 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>121</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="20">
@@ -13406,7 +13726,9 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="V90" s="20">
+        <v>1000</v>
+      </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
@@ -13479,13 +13801,13 @@
         <v>90</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E92" s="11">
         <v>9015378357</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>123</v>
@@ -13582,7 +13904,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>125</v>
@@ -13592,7 +13914,7 @@
       </c>
       <c r="H94" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -13614,7 +13936,9 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="20">
+        <v>1000</v>
+      </c>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
@@ -14244,11 +14568,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D94"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -14273,7 +14597,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14284,11 +14608,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>294500</v>
+        <v>245500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>294500</v>
+        <v>245500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14303,7 +14627,7 @@
       </c>
       <c r="D3" s="10">
         <f>Orders!F3-Collection!H3</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14333,7 +14657,7 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>4500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14363,10 +14687,10 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -14393,10 +14717,10 @@
       </c>
       <c r="D9" s="10">
         <f>Orders!F9-Collection!H9</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -14408,7 +14732,7 @@
       </c>
       <c r="D10" s="10">
         <f>Orders!F10-Collection!H10</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -14423,7 +14747,7 @@
       </c>
       <c r="D11" s="10">
         <f>Orders!F11-Collection!H11</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -14438,10 +14762,10 @@
       </c>
       <c r="D12" s="10">
         <f>Orders!F12-Collection!H12</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="1:4">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -14453,7 +14777,7 @@
       </c>
       <c r="D13" s="10">
         <f>Orders!F13-Collection!H13</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -14468,7 +14792,7 @@
       </c>
       <c r="D14" s="10">
         <f>Orders!F14-Collection!H14</f>
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -14483,7 +14807,7 @@
       </c>
       <c r="D15" s="10">
         <f>Orders!F15-Collection!H15</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -14543,10 +14867,10 @@
       </c>
       <c r="D19" s="10">
         <f>Orders!F19-Collection!H19</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -14561,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -14603,10 +14927,10 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -14618,7 +14942,7 @@
       </c>
       <c r="D24" s="10">
         <f>Orders!F24-Collection!H24</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14648,7 +14972,7 @@
       </c>
       <c r="D26" s="10">
         <f>Orders!F26-Collection!H26</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14678,10 +15002,10 @@
       </c>
       <c r="D28" s="10">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -14693,7 +15017,7 @@
       </c>
       <c r="D29" s="10">
         <f>Orders!F29-Collection!H29</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -14708,10 +15032,10 @@
       </c>
       <c r="D30" s="10">
         <f>Orders!F30-Collection!H30</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -14738,7 +15062,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>14500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -14753,10 +15077,10 @@
       </c>
       <c r="D33" s="10">
         <f>Orders!F33-Collection!H33</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -14786,7 +15110,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -14813,10 +15137,10 @@
       </c>
       <c r="D37" s="10">
         <f>Orders!F37-Collection!H37</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -14843,10 +15167,10 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -14873,10 +15197,10 @@
       </c>
       <c r="D41" s="10">
         <f>Orders!F41-Collection!H41</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -14888,7 +15212,7 @@
       </c>
       <c r="D42" s="10">
         <f>Orders!F42-Collection!H42</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -14903,14 +15227,16 @@
       </c>
       <c r="D43" s="10">
         <f>Orders!F43-Collection!H43</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8">
+        <v>9525707958</v>
+      </c>
       <c r="C44" s="9" t="s">
         <v>62</v>
       </c>
@@ -14946,7 +15272,7 @@
       </c>
       <c r="D46" s="10">
         <f>Orders!F46-Collection!H46</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -14961,10 +15287,10 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -14991,7 +15317,7 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>7000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -15009,7 +15335,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
@@ -15024,11 +15350,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="8">
+        <v>8210487942</v>
+      </c>
       <c r="C52" s="9" t="s">
         <v>71</v>
       </c>
@@ -15049,7 +15377,7 @@
       </c>
       <c r="D53" s="10">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -15064,20 +15392,22 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8">
+        <v>8873894618</v>
+      </c>
       <c r="C55" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="10">
         <f>Orders!F55-Collection!H55</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -15095,7 +15425,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>64</v>
       </c>
@@ -15122,7 +15452,7 @@
       </c>
       <c r="D58" s="10">
         <f>Orders!F58-Collection!H58</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -15137,10 +15467,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -15155,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
@@ -15182,7 +15512,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -15200,7 +15530,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>82</v>
       </c>
@@ -15212,10 +15542,10 @@
       </c>
       <c r="D64" s="10">
         <f>Orders!F64-Collection!H64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
@@ -15227,7 +15557,7 @@
       </c>
       <c r="D65" s="10">
         <f>Orders!F65-Collection!H65</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15272,7 +15602,7 @@
       </c>
       <c r="D68" s="10">
         <f>Orders!F68-Collection!H68</f>
-        <v>4000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -15290,7 +15620,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>93</v>
       </c>
@@ -15317,7 +15647,7 @@
       </c>
       <c r="D71" s="10">
         <f>Orders!F71-Collection!H71</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -15332,7 +15662,7 @@
       </c>
       <c r="D72" s="10">
         <f>Orders!F72-Collection!H72</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15347,7 +15677,7 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -15365,7 +15695,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -15422,7 +15752,7 @@
       </c>
       <c r="D78" s="10">
         <f>Orders!F78-Collection!H78</f>
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -15437,10 +15767,10 @@
       </c>
       <c r="D79" s="10">
         <f>Orders!F79-Collection!H79</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -15463,10 +15793,10 @@
       </c>
       <c r="D81" s="10">
         <f>Orders!F81-Collection!H81</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -15489,10 +15819,10 @@
       </c>
       <c r="D83" s="10">
         <f>Orders!F83-Collection!H83</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -15503,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>114</v>
       </c>
@@ -15518,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -15533,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -15548,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -15563,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -15574,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90" s="8"/>
       <c r="B90" s="8">
         <v>9905739212</v>
@@ -15584,10 +15914,10 @@
       </c>
       <c r="D90" s="10">
         <f>Orders!F90-Collection!H90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" hidden="1" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -15598,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="8">
         <v>9015378357</v>
@@ -15611,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -15635,7 +15965,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -15646,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -15659,28 +15989,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1000"/>
-        <filter val="1100"/>
-        <filter val="1600"/>
-        <filter val="2000"/>
-        <filter val="2300"/>
-        <filter val="2500"/>
-        <filter val="3000"/>
-        <filter val="4000"/>
-        <filter val="4500"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="7000"/>
-        <filter val="8000"/>
-        <filter val="10000"/>
-        <filter val="14500"/>
-        <filter val="15000"/>
-        <filter val="25000"/>
-        <filter val="294500"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/May2021Recharge.xlsx
+++ b/Recharge/May2021Recharge.xlsx
@@ -776,10 +776,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -800,37 +800,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,7 +823,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,9 +883,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,24 +921,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,43 +938,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1053,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,7 +1101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,61 +1119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,19 +1137,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,43 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,6 +1227,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1237,15 +1285,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,23 +1307,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,42 +1323,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,130 +1346,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,11 +1901,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="V75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y94" sqref="Y94"/>
+      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2049,22 +2049,22 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>840900</v>
+        <v>891900</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(G3:G121)</f>
-        <v>664560</v>
+        <v>717600</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="24">
         <f>G2/1.04+H2</f>
-        <v>840900</v>
+        <v>891900</v>
       </c>
       <c r="G2" s="15">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>664560</v>
+        <v>717600</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(H3:H121)</f>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="1"/>
-        <v>6240</v>
+        <v>59280</v>
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="1"/>
@@ -2328,11 +2328,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H5" s="26">
         <v>2500</v>
@@ -2366,7 +2366,9 @@
         <v>2080</v>
       </c>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -2466,11 +2468,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>30160</v>
+        <v>34320</v>
       </c>
       <c r="H7" s="26">
         <v>16000</v>
@@ -2520,7 +2522,9 @@
         <v>2080</v>
       </c>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="1">
+        <v>4160</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -2676,11 +2680,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="H10" s="26">
         <v>5000</v>
@@ -2708,7 +2712,9 @@
         <v>2080</v>
       </c>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="Z10" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -2914,11 +2920,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>18720</v>
+        <v>20800</v>
       </c>
       <c r="H14" s="26">
         <v>5500</v>
@@ -2954,7 +2960,9 @@
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -3045,11 +3053,11 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H16" s="26">
         <v>2000</v>
@@ -3077,7 +3085,9 @@
       <c r="Y16" s="1">
         <v>1040</v>
       </c>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="1">
+        <v>1040</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -3632,11 +3642,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>17680</v>
       </c>
       <c r="H26" s="26">
         <v>0</v>
@@ -3666,7 +3676,9 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="Z26" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H28" s="26">
         <v>1000</v>
@@ -3786,7 +3798,9 @@
       <c r="Y28" s="1">
         <v>2080</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -3994,11 +4008,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" si="3"/>
-        <v>30500</v>
+        <v>35500</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>24960</v>
+        <v>30160</v>
       </c>
       <c r="H32" s="26">
         <v>6500</v>
@@ -4040,7 +4054,9 @@
       <c r="Y32" s="1">
         <v>2080</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -4662,11 +4678,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>21840</v>
+        <v>23920</v>
       </c>
       <c r="H43" s="26">
         <v>4000</v>
@@ -4708,7 +4724,9 @@
       <c r="Y43" s="1">
         <v>2080</v>
       </c>
-      <c r="Z43" s="1"/>
+      <c r="Z43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -4924,11 +4942,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H47" s="26">
         <v>3000</v>
@@ -4960,7 +4978,9 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
+      <c r="Z47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
@@ -5044,11 +5064,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>28080</v>
       </c>
       <c r="H49" s="26">
         <v>5000</v>
@@ -5094,7 +5114,9 @@
       <c r="Y49" s="1">
         <v>2080</v>
       </c>
-      <c r="Z49" s="1"/>
+      <c r="Z49" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
@@ -5352,11 +5374,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="0"/>
-        <v>17680</v>
+        <v>19760</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
@@ -5396,7 +5418,9 @@
       <c r="Y54" s="1">
         <v>2080</v>
       </c>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
@@ -5653,11 +5677,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="0"/>
-        <v>19760</v>
+        <v>24960</v>
       </c>
       <c r="H59" s="26">
         <v>10000</v>
@@ -5694,7 +5718,9 @@
       <c r="Y59" s="1">
         <v>2080</v>
       </c>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
@@ -5838,11 +5864,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="0"/>
-        <v>19760</v>
+        <v>24960</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
@@ -5878,7 +5904,9 @@
       <c r="Y62" s="1">
         <v>2080</v>
       </c>
-      <c r="Z62" s="1"/>
+      <c r="Z62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
@@ -6324,11 +6352,11 @@
       </c>
       <c r="F70" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G70" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H70" s="26">
         <v>0</v>
@@ -6350,7 +6378,9 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
+      <c r="Z70" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
@@ -6753,11 +6783,11 @@
       </c>
       <c r="F77" s="12">
         <f t="shared" si="3"/>
-        <v>8300</v>
+        <v>10300</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H77" s="26">
         <v>2300</v>
@@ -6786,7 +6816,9 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
+      <c r="Z77" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
@@ -6814,11 +6846,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" si="3"/>
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" si="4"/>
-        <v>20800</v>
+        <v>22880</v>
       </c>
       <c r="H78" s="26">
         <v>3000</v>
@@ -6858,7 +6890,9 @@
       <c r="Y78" s="1">
         <v>2080</v>
       </c>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
@@ -7221,11 +7255,11 @@
       </c>
       <c r="F85" s="12">
         <f t="shared" si="5"/>
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="4"/>
-        <v>17680</v>
+        <v>22880</v>
       </c>
       <c r="H85" s="26">
         <v>5000</v>
@@ -7261,7 +7295,9 @@
       <c r="Y85" s="1">
         <v>2080</v>
       </c>
-      <c r="Z85" s="1"/>
+      <c r="Z85" s="1">
+        <v>5200</v>
+      </c>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
@@ -7623,11 +7659,11 @@
       </c>
       <c r="F92" s="12">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G92" s="12">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H92" s="26">
         <v>0</v>
@@ -7653,7 +7689,9 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
+      <c r="Z92" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
@@ -8393,11 +8431,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="S85" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
+      <selection pane="bottomRight" activeCell="Z105" sqref="Z105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8544,14 +8582,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>595400</v>
+        <v>628400</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>595400</v>
+        <v>628400</v>
       </c>
       <c r="I2" s="12">
         <f>SUM(I3:I121)</f>
@@ -8623,7 +8661,7 @@
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="1"/>
@@ -8762,7 +8800,7 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I4" s="20">
         <v>2000</v>
@@ -8787,7 +8825,9 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="20">
+        <v>2000</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -8884,7 +8924,7 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="I6" s="20">
         <v>2000</v>
@@ -8915,7 +8955,9 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="20">
+        <v>4000</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -8954,7 +8996,7 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8979,7 +9021,9 @@
         <v>7000</v>
       </c>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="20">
+        <v>7000</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -10196,7 +10240,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -10223,7 +10267,9 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="20">
+        <v>2000</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -10259,7 +10305,7 @@
       </c>
       <c r="H29" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -10282,7 +10328,9 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="20">
+        <v>2000</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -11221,7 +11269,7 @@
       </c>
       <c r="H46" s="12">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -11244,7 +11292,9 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="Z46" s="20">
+        <v>4000</v>
+      </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -11683,7 +11733,7 @@
       </c>
       <c r="H54" s="12">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -11706,7 +11756,9 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="20">
+        <v>6000</v>
+      </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
@@ -12323,7 +12375,7 @@
       </c>
       <c r="H65" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I65" s="20">
         <v>2000</v>
@@ -12348,7 +12400,9 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
+      <c r="Z65" s="20">
+        <v>2000</v>
+      </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
@@ -12833,7 +12887,7 @@
       </c>
       <c r="H74" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -12858,7 +12912,9 @@
       </c>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
+      <c r="Z74" s="20">
+        <v>2000</v>
+      </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
@@ -13058,7 +13114,7 @@
       </c>
       <c r="H78" s="12">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -13084,7 +13140,9 @@
       <c r="Y78" s="20">
         <v>4000</v>
       </c>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="20">
+        <v>2000</v>
+      </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
@@ -14568,11 +14626,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -14608,14 +14666,14 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>245500</v>
+        <v>263500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>245500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>263500</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -14642,7 +14700,7 @@
       </c>
       <c r="D4" s="10">
         <f>Orders!F4-Collection!H4</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14657,10 +14715,10 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -14672,7 +14730,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14687,10 +14745,10 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -14705,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -14732,10 +14790,10 @@
       </c>
       <c r="D10" s="10">
         <f>Orders!F10-Collection!H10</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -14792,7 +14850,7 @@
       </c>
       <c r="D14" s="10">
         <f>Orders!F14-Collection!H14</f>
-        <v>4500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -14822,7 +14880,7 @@
       </c>
       <c r="D16" s="10">
         <f>Orders!F16-Collection!H16</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14870,7 +14928,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -14885,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -14972,7 +15030,7 @@
       </c>
       <c r="D26" s="10">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -15005,7 +15063,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -15017,10 +15075,10 @@
       </c>
       <c r="D29" s="10">
         <f>Orders!F29-Collection!H29</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -15035,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -15062,7 +15120,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>7500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -15080,7 +15138,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" hidden="1" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -15110,7 +15168,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -15125,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
@@ -15140,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -15170,7 +15228,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -15185,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
@@ -15227,10 +15285,10 @@
       </c>
       <c r="D43" s="10">
         <f>Orders!F43-Collection!H43</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -15260,7 +15318,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -15272,7 +15330,7 @@
       </c>
       <c r="D46" s="10">
         <f>Orders!F46-Collection!H46</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -15287,10 +15345,10 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -15317,7 +15375,7 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>5000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -15335,7 +15393,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
@@ -15350,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>64</v>
       </c>
@@ -15392,10 +15450,10 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
@@ -15425,7 +15483,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>64</v>
       </c>
@@ -15440,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -15467,10 +15525,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -15485,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
@@ -15512,7 +15570,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>4000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -15545,7 +15603,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
@@ -15557,7 +15615,7 @@
       </c>
       <c r="D65" s="10">
         <f>Orders!F65-Collection!H65</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15590,7 +15648,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>93</v>
       </c>
@@ -15632,10 +15690,10 @@
       </c>
       <c r="D70" s="10">
         <f>Orders!F70-Collection!H70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>93</v>
       </c>
@@ -15680,7 +15738,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -15692,10 +15750,10 @@
       </c>
       <c r="D74" s="10">
         <f>Orders!F74-Collection!H74</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -15737,7 +15795,7 @@
       </c>
       <c r="D77" s="10">
         <f>Orders!F77-Collection!H77</f>
-        <v>2300</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -15755,7 +15813,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>103</v>
       </c>
@@ -15770,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -15781,7 +15839,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>108</v>
       </c>
@@ -15796,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -15807,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>111</v>
       </c>
@@ -15822,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -15845,10 +15903,10 @@
       </c>
       <c r="D85" s="10">
         <f>Orders!F85-Collection!H85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -15863,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -15878,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" hidden="1" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -15893,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -15917,7 +15975,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -15938,10 +15996,10 @@
       </c>
       <c r="D92" s="10">
         <f>Orders!F92-Collection!H92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -15965,7 +16023,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -15976,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -15989,6 +16047,27 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1000"/>
+        <filter val="1100"/>
+        <filter val="2000"/>
+        <filter val="3000"/>
+        <filter val="3600"/>
+        <filter val="4000"/>
+        <filter val="4300"/>
+        <filter val="4500"/>
+        <filter val="5000"/>
+        <filter val="6000"/>
+        <filter val="6500"/>
+        <filter val="7000"/>
+        <filter val="8000"/>
+        <filter val="9000"/>
+        <filter val="12500"/>
+        <filter val="15000"/>
+        <filter val="263500"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/May2021Recharge.xlsx
+++ b/Recharge/May2021Recharge.xlsx
@@ -24,6 +24,75 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="AE7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+1040-Manual</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K35" authorId="0">
       <text>
         <r>
@@ -47,7 +116,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+1040-Manual</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,6 +195,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="AM7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+4900-Digital
+100-Cash</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I14" authorId="0">
       <text>
         <r>
@@ -125,12 +263,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+6000-Recharge
+6000-Jio Phone</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="215">
   <si>
     <t>S.No.</t>
   </si>
@@ -594,7 +755,7 @@
     <t>Shantnu Kr.</t>
   </si>
   <si>
-    <t>Munna Kr.(PNB)</t>
+    <t>Munna Kr.(PNB)/Manish</t>
   </si>
   <si>
     <t>YASHWANT</t>
@@ -615,10 +776,13 @@
     <t>Binay Lal</t>
   </si>
   <si>
+    <t>ABINESH</t>
+  </si>
+  <si>
     <t>Arman Ala</t>
   </si>
   <si>
-    <t>VIKESH</t>
+    <t>VIKESH/ VK</t>
   </si>
   <si>
     <t>Sonu/Rupa 9708329918</t>
@@ -694,6 +858,9 @@
   </si>
   <si>
     <t>Amresh Kr.</t>
+  </si>
+  <si>
+    <t>Amresh Kr./HONSI/GAUTAM/Rohit</t>
   </si>
   <si>
     <t>9931812966/9572985032</t>
@@ -776,10 +943,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -800,7 +967,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,37 +982,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,19 +995,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,31 +1018,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,7 +1035,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,14 +1105,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,13 +1184,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,13 +1322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,13 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,25 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,97 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,30 +1394,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1261,6 +1404,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,16 +1458,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1312,29 +1490,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,130 +1513,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,11 +2068,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
+      <selection pane="bottomRight" activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2049,22 +2216,22 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>891900</v>
+        <v>1335900</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(G3:G121)</f>
-        <v>717600</v>
+        <v>1179360</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="24">
         <f>G2/1.04+H2</f>
-        <v>891900</v>
+        <v>1335900</v>
       </c>
       <c r="G2" s="15">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>717600</v>
+        <v>1179360</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(H3:H121)</f>
@@ -2144,55 +2311,55 @@
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22880</v>
       </c>
       <c r="AB2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="AC2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49920</v>
       </c>
       <c r="AD2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="AE2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32240</v>
       </c>
       <c r="AF2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47840</v>
       </c>
       <c r="AG2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40560</v>
       </c>
       <c r="AH2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="AI2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23920</v>
       </c>
       <c r="AJ2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="AK2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43680</v>
       </c>
       <c r="AL2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="AM2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:40">
@@ -2263,11 +2430,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H4" s="26">
         <v>2000</v>
@@ -2302,7 +2469,9 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AE4" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -2328,11 +2497,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>22880</v>
       </c>
       <c r="H5" s="26">
         <v>2500</v>
@@ -2370,16 +2539,24 @@
         <v>2080</v>
       </c>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
+      <c r="AK5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -2399,11 +2576,11 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>16640</v>
+        <v>27040</v>
       </c>
       <c r="H6" s="26">
         <v>2000</v>
@@ -2438,19 +2615,29 @@
         <v>2080</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="AC6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
+      <c r="AJ6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN6" s="1"/>
     </row>
     <row r="7" s="11" customFormat="1" spans="1:40">
@@ -2468,11 +2655,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>49000</v>
+        <v>69000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>34320</v>
+        <v>55120</v>
       </c>
       <c r="H7" s="26">
         <v>16000</v>
@@ -2526,18 +2713,34 @@
         <v>4160</v>
       </c>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="AD7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>4160</v>
+      </c>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
+      <c r="AG7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AL7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>4160</v>
+      </c>
       <c r="AN7" s="1"/>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:40">
@@ -2555,11 +2758,11 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>14560</v>
       </c>
       <c r="H8" s="26">
         <v>2000</v>
@@ -2591,15 +2794,21 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="AB8" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="AG8" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -2617,11 +2826,11 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="H9" s="26">
         <v>0</v>
@@ -2657,7 +2866,9 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AH9" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -2680,11 +2891,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>28080</v>
       </c>
       <c r="H10" s="26">
         <v>5000</v>
@@ -2717,16 +2928,28 @@
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AC10" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AF10" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="AH10" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AK10" s="1">
+        <v>3120</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
@@ -2742,11 +2965,11 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H11" s="26">
         <v>2000</v>
@@ -2773,7 +2996,9 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="AC11" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -2798,11 +3023,11 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="H12" s="26">
         <v>0</v>
@@ -2837,7 +3062,9 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -2858,11 +3085,11 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>30160</v>
       </c>
       <c r="H13" s="26">
         <v>0</v>
@@ -2893,18 +3120,30 @@
         <v>2080</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+      <c r="AK13" s="1">
+        <v>4160</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
@@ -2920,11 +3159,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>25500</v>
+        <v>35500</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>31200</v>
       </c>
       <c r="H14" s="26">
         <v>5500</v>
@@ -2965,15 +3204,25 @@
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AF14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
+      <c r="AH14" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+      <c r="AK14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
@@ -2993,11 +3242,11 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H15" s="26">
         <v>2000</v>
@@ -3029,7 +3278,9 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -3037,7 +3288,9 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="AL15" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
@@ -3053,11 +3306,11 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H16" s="26">
         <v>2000</v>
@@ -3097,7 +3350,9 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>1040</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -3234,11 +3489,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H19" s="26">
         <v>0</v>
@@ -3275,7 +3530,9 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="1">
+        <v>3120</v>
+      </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -3350,11 +3607,11 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H21" s="26">
         <v>0</v>
@@ -3389,7 +3646,9 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
@@ -3464,11 +3723,11 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>18720</v>
       </c>
       <c r="H23" s="26">
         <v>0</v>
@@ -3499,16 +3758,26 @@
       <c r="Z23" s="1">
         <v>2080</v>
       </c>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AC23" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="AH23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
+      <c r="AJ23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -3584,11 +3853,11 @@
       </c>
       <c r="F25" s="12">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>9360</v>
       </c>
       <c r="H25" s="26">
         <v>0</v>
@@ -3621,13 +3890,17 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="AG25" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
+      <c r="AM25" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN25" s="1"/>
     </row>
     <row r="26" s="11" customFormat="1" spans="1:40">
@@ -3642,11 +3915,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>17680</v>
+        <v>30160</v>
       </c>
       <c r="H26" s="26">
         <v>0</v>
@@ -3679,18 +3952,30 @@
       <c r="Z26" s="1">
         <v>2080</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AA26" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
+      <c r="AF26" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
+      <c r="AI26" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AL26" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
     </row>
@@ -3761,11 +4046,11 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>13520</v>
+        <v>19760</v>
       </c>
       <c r="H28" s="26">
         <v>1000</v>
@@ -3804,16 +4089,22 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AH28" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
+      <c r="AM28" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN28" s="1"/>
     </row>
     <row r="29" s="11" customFormat="1" spans="1:40">
@@ -3828,11 +4119,11 @@
       </c>
       <c r="F29" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H29" s="26">
         <v>0</v>
@@ -3866,7 +4157,9 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
+      <c r="AF29" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3888,11 +4181,11 @@
       </c>
       <c r="F30" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>11440</v>
       </c>
       <c r="H30" s="26">
         <v>0</v>
@@ -3929,13 +4222,17 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AG30" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
+      <c r="AM30" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN30" s="1"/>
     </row>
     <row r="31" s="11" customFormat="1" spans="1:40">
@@ -3950,11 +4247,11 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H31" s="26">
         <v>0</v>
@@ -3982,7 +4279,9 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
+      <c r="AB31" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -3992,7 +4291,9 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AL31" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
@@ -4008,11 +4309,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" si="3"/>
-        <v>35500</v>
+        <v>50500</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>30160</v>
+        <v>45760</v>
       </c>
       <c r="H32" s="26">
         <v>6500</v>
@@ -4061,14 +4362,20 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
+      <c r="AE32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
+      <c r="AI32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AL32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
     </row>
@@ -4084,11 +4391,11 @@
       </c>
       <c r="F33" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H33" s="26">
         <v>0</v>
@@ -4120,7 +4427,9 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
+      <c r="AD33" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
@@ -4129,7 +4438,9 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
+      <c r="AM33" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN33" s="1"/>
     </row>
     <row r="34" s="11" customFormat="1" spans="1:40">
@@ -4144,11 +4455,11 @@
       </c>
       <c r="F34" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>7280</v>
       </c>
       <c r="H34" s="26">
         <v>0</v>
@@ -4175,13 +4486,17 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
+      <c r="AA34" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
+      <c r="AG34" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -4202,11 +4517,11 @@
       </c>
       <c r="F35" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H35" s="26">
         <v>0</v>
@@ -4234,7 +4549,9 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
+      <c r="AB35" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -4242,7 +4559,9 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
+      <c r="AJ35" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
@@ -4260,11 +4579,11 @@
       </c>
       <c r="F36" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H36" s="26">
         <v>0</v>
@@ -4292,7 +4611,9 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
+      <c r="AF36" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
@@ -4314,11 +4635,11 @@
       </c>
       <c r="F37" s="12">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>19760</v>
+        <v>26000</v>
       </c>
       <c r="H37" s="26">
         <v>0</v>
@@ -4363,10 +4684,16 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
+      <c r="AH37" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
+      <c r="AJ37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
@@ -4439,11 +4766,11 @@
       </c>
       <c r="F39" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H39" s="26">
         <v>0</v>
@@ -4480,10 +4807,14 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
+      <c r="AG39" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AJ39" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
@@ -4504,11 +4835,11 @@
       </c>
       <c r="F40" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
@@ -4540,13 +4871,17 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
+      <c r="AF40" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
+      <c r="AL40" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
     </row>
@@ -4622,11 +4957,11 @@
       </c>
       <c r="F42" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H42" s="26">
         <v>2000</v>
@@ -4663,7 +4998,9 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
+      <c r="AM42" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN42" s="1"/>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:40">
@@ -4678,11 +5015,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>23920</v>
+        <v>36400</v>
       </c>
       <c r="H43" s="26">
         <v>4000</v>
@@ -4728,17 +5065,29 @@
         <v>2080</v>
       </c>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
+      <c r="AB43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
+      <c r="AD43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
+      <c r="AH43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
+      <c r="AL43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
@@ -4754,11 +5103,11 @@
       </c>
       <c r="F44" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G44" s="12">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H44" s="26">
         <v>0</v>
@@ -4797,7 +5146,9 @@
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
+      <c r="AM44" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN44" s="1"/>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:40">
@@ -4812,11 +5163,11 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>21840</v>
       </c>
       <c r="H45" s="26">
         <v>0</v>
@@ -4851,12 +5202,18 @@
       <c r="Z45" s="1">
         <v>2080</v>
       </c>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
+      <c r="AA45" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
+      <c r="AF45" s="1">
+        <v>5200</v>
+      </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
@@ -4878,11 +5235,11 @@
       </c>
       <c r="F46" s="12">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="G46" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>17680</v>
       </c>
       <c r="H46" s="26">
         <v>3000</v>
@@ -4918,15 +5275,21 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
+      <c r="AD46" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
+      <c r="AG46" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
+      <c r="AL46" s="1">
+        <v>3120</v>
+      </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
     </row>
@@ -4942,11 +5305,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>13520</v>
+        <v>21840</v>
       </c>
       <c r="H47" s="26">
         <v>3000</v>
@@ -4984,14 +5347,22 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
+      <c r="AD47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
+      <c r="AF47" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
+      <c r="AK47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
@@ -5008,11 +5379,11 @@
       </c>
       <c r="F48" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H48" s="26">
         <v>2000</v>
@@ -5044,7 +5415,9 @@
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
+      <c r="AH48" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
@@ -5064,11 +5437,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="0"/>
-        <v>28080</v>
+        <v>44720</v>
       </c>
       <c r="H49" s="26">
         <v>5000</v>
@@ -5117,18 +5490,34 @@
       <c r="Z49" s="1">
         <v>2080</v>
       </c>
-      <c r="AA49" s="1"/>
+      <c r="AA49" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
+      <c r="AC49" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
+      <c r="AH49" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
+      <c r="AJ49" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
+      <c r="AL49" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
     </row>
@@ -5144,11 +5533,11 @@
       </c>
       <c r="F50" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H50" s="26">
         <v>3000</v>
@@ -5175,7 +5564,9 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
+      <c r="AE50" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -5198,11 +5589,11 @@
       </c>
       <c r="F51" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G51" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H51" s="26">
         <v>0</v>
@@ -5231,14 +5622,18 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
+      <c r="AE51" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
+      <c r="AL51" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
     </row>
@@ -5308,11 +5703,11 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>18720</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
@@ -5347,17 +5742,25 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="AA53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
+      <c r="AC53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
+      <c r="AG53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
+      <c r="AK53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
@@ -5374,11 +5777,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="0"/>
-        <v>19760</v>
+        <v>32240</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
@@ -5421,19 +5824,31 @@
       <c r="Z54" s="1">
         <v>2080</v>
       </c>
-      <c r="AA54" s="1"/>
+      <c r="AA54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
+      <c r="AC54" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
+      <c r="AG54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
+      <c r="AM54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AN54" s="1"/>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:40">
@@ -5449,11 +5864,11 @@
       </c>
       <c r="F55" s="12">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H55" s="26">
         <v>0</v>
@@ -5480,14 +5895,18 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
+      <c r="AC55" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
+      <c r="AJ55" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
@@ -5615,11 +6034,11 @@
       </c>
       <c r="F58" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G58" s="12">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H58" s="26">
         <v>2000</v>
@@ -5653,10 +6072,14 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
+      <c r="AD58" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
+      <c r="AG58" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -5677,11 +6100,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
-        <v>34000</v>
+        <v>49000</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="0"/>
-        <v>24960</v>
+        <v>40560</v>
       </c>
       <c r="H59" s="26">
         <v>10000</v>
@@ -5723,15 +6146,21 @@
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
+      <c r="AC59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
+      <c r="AF59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
+      <c r="AK59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
@@ -5748,11 +6177,11 @@
       </c>
       <c r="F60" s="12">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="G60" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>11440</v>
       </c>
       <c r="H60" s="26">
         <v>5000</v>
@@ -5781,7 +6210,9 @@
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
+      <c r="AB60" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -5807,11 +6238,11 @@
       </c>
       <c r="F61" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H61" s="26">
         <v>1000</v>
@@ -5838,13 +6269,17 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
+      <c r="AC61" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
+      <c r="AI61" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
@@ -5864,11 +6299,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>39000</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="0"/>
-        <v>24960</v>
+        <v>40560</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
@@ -5909,15 +6344,21 @@
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
+      <c r="AC62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
+      <c r="AK62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
@@ -5995,11 +6436,11 @@
       </c>
       <c r="F64" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>17680</v>
       </c>
       <c r="H64" s="26">
         <v>0</v>
@@ -6030,13 +6471,17 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
+      <c r="AE64" s="1">
+        <v>5200</v>
+      </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
+      <c r="AK64" s="1">
+        <v>5200</v>
+      </c>
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
@@ -6056,11 +6501,11 @@
       </c>
       <c r="F65" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G65" s="12">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H65" s="21">
         <v>2000</v>
@@ -6091,11 +6536,15 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
+      <c r="AC65" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
+      <c r="AG65" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
@@ -6117,11 +6566,11 @@
       </c>
       <c r="F66" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G66" s="12">
         <f t="shared" ref="G66:G96" si="4">SUM(I66:AM66)</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H66" s="26">
         <v>8000</v>
@@ -6154,7 +6603,9 @@
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
+      <c r="AK66" s="1">
+        <v>1040</v>
+      </c>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
@@ -6172,11 +6623,11 @@
       </c>
       <c r="F67" s="12">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G67" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H67" s="26">
         <v>0</v>
@@ -6210,7 +6661,9 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
+      <c r="AF67" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
@@ -6232,11 +6685,11 @@
       </c>
       <c r="F68" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>14560</v>
       </c>
       <c r="H68" s="26">
         <v>0</v>
@@ -6269,16 +6722,22 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
+      <c r="AC68" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
+      <c r="AG68" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
+      <c r="AL68" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
     </row>
@@ -6294,11 +6753,11 @@
       </c>
       <c r="F69" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H69" s="26">
         <v>0</v>
@@ -6335,7 +6794,9 @@
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
+      <c r="AK69" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
@@ -6408,11 +6869,11 @@
       </c>
       <c r="F71" s="12">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H71" s="26">
         <v>1000</v>
@@ -6446,7 +6907,9 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
+      <c r="AJ71" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
@@ -6464,11 +6927,11 @@
       </c>
       <c r="F72" s="12">
         <f t="shared" si="3"/>
-        <v>51000</v>
+        <v>71000</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="4"/>
-        <v>42640</v>
+        <v>63440</v>
       </c>
       <c r="H72" s="26">
         <v>10000</v>
@@ -6513,16 +6976,24 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AC72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
+      <c r="AF72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
+      <c r="AJ72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
+      <c r="AL72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
     </row>
@@ -6538,11 +7009,11 @@
       </c>
       <c r="F73" s="12">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="4"/>
-        <v>19760</v>
+        <v>30160</v>
       </c>
       <c r="H73" s="26">
         <v>0</v>
@@ -6582,18 +7053,28 @@
         <v>2080</v>
       </c>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
+      <c r="AA73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
+      <c r="AD73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
+      <c r="AF73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
+      <c r="AH73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
+      <c r="AL73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
     </row>
@@ -6610,11 +7091,11 @@
       </c>
       <c r="F74" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G74" s="12">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>14560</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
@@ -6646,16 +7127,22 @@
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
+      <c r="AC74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
+      <c r="AF74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
+      <c r="AL74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
     </row>
@@ -6783,11 +7270,11 @@
       </c>
       <c r="F77" s="12">
         <f t="shared" si="3"/>
-        <v>10300</v>
+        <v>14300</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H77" s="26">
         <v>2300</v>
@@ -6825,12 +7312,16 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
+      <c r="AG77" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
+      <c r="AL77" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
     </row>
@@ -6846,11 +7337,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" si="4"/>
-        <v>22880</v>
+        <v>41600</v>
       </c>
       <c r="H78" s="26">
         <v>3000</v>
@@ -6896,16 +7387,26 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
+      <c r="AD78" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
+      <c r="AF78" s="1">
+        <v>4160</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="1">
+        <v>5200</v>
+      </c>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
+      <c r="AM78" s="1">
+        <v>5200</v>
+      </c>
       <c r="AN78" s="1"/>
     </row>
     <row r="79" s="11" customFormat="1" spans="1:40">
@@ -6920,11 +7421,11 @@
       </c>
       <c r="F79" s="12">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G79" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H79" s="26">
         <v>0</v>
@@ -6952,9 +7453,15 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
+      <c r="AB79" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
@@ -7031,11 +7538,11 @@
       </c>
       <c r="F81" s="12">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G81" s="12">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H81" s="26">
         <v>2000</v>
@@ -7065,7 +7572,9 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
+      <c r="AB81" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
@@ -7074,7 +7583,9 @@
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
+      <c r="AK81" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
@@ -7144,11 +7655,11 @@
       </c>
       <c r="F83" s="12">
         <f t="shared" ref="F83:F96" si="5">G83/1.04+H83</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="12">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H83" s="26">
         <v>0</v>
@@ -7175,7 +7686,9 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
+      <c r="AA83" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
@@ -7255,11 +7768,11 @@
       </c>
       <c r="F85" s="12">
         <f t="shared" si="5"/>
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="4"/>
-        <v>22880</v>
+        <v>33280</v>
       </c>
       <c r="H85" s="26">
         <v>5000</v>
@@ -7302,13 +7815,17 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
+      <c r="AE85" s="1">
+        <v>5200</v>
+      </c>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
+      <c r="AK85" s="1">
+        <v>5200</v>
+      </c>
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
@@ -7325,11 +7842,11 @@
       </c>
       <c r="F86" s="12">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G86" s="12">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H86" s="26">
         <v>0</v>
@@ -7365,7 +7882,9 @@
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
+      <c r="AL86" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
     </row>
@@ -7440,11 +7959,11 @@
       </c>
       <c r="F88" s="12">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G88" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H88" s="26">
         <v>0</v>
@@ -7474,11 +7993,15 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
+      <c r="AD88" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
+      <c r="AH88" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
@@ -7548,11 +8071,11 @@
       </c>
       <c r="F90" s="12">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G90" s="12">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>9360</v>
       </c>
       <c r="H90" s="26">
         <v>0</v>
@@ -7585,14 +8108,24 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
+      <c r="AC90" s="1">
+        <v>1040</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>1040</v>
+      </c>
       <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
+      <c r="AF90" s="1">
+        <v>1040</v>
+      </c>
       <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
+      <c r="AH90" s="1">
+        <v>1040</v>
+      </c>
       <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
+      <c r="AJ90" s="1">
+        <v>1040</v>
+      </c>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
@@ -7770,11 +8303,11 @@
       </c>
       <c r="F94" s="12">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H94" s="26">
         <v>1000</v>
@@ -7803,7 +8336,9 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
+      <c r="AC94" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
@@ -8431,11 +8966,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="S85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AI66" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z105" sqref="Z105"/>
+      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8582,14 +9117,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>628400</v>
+        <v>1066000</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>628400</v>
+        <v>1066000</v>
       </c>
       <c r="I2" s="12">
         <f>SUM(I3:I121)</f>
@@ -8645,7 +9180,7 @@
       </c>
       <c r="V2" s="12">
         <f t="shared" si="1"/>
-        <v>82000</v>
+        <v>87000</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" si="1"/>
@@ -8657,7 +9192,7 @@
       </c>
       <c r="Y2" s="12">
         <f t="shared" si="1"/>
-        <v>68000</v>
+        <v>71000</v>
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="1"/>
@@ -8665,55 +9200,55 @@
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50100</v>
       </c>
       <c r="AB2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AC2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="AD2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AE2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="AF2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="AG2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="AH2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="AI2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="AJ2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AK2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="AL2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="AM2" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:39">
@@ -8800,7 +9335,7 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I4" s="20">
         <v>2000</v>
@@ -8831,7 +9366,9 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AD4" s="20">
+        <v>2000</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
@@ -8839,7 +9376,9 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AL4" s="20">
+        <v>2000</v>
+      </c>
       <c r="AM4" s="1"/>
     </row>
     <row r="5" s="11" customFormat="1" spans="1:39">
@@ -8860,7 +9399,7 @@
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -8893,12 +9432,16 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1">
+        <v>8500</v>
+      </c>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="1">
+        <v>4000</v>
+      </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:39">
       <c r="A6" s="11">
@@ -8924,7 +9467,7 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="I6" s="20">
         <v>2000</v>
@@ -8965,12 +9508,16 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="20">
+        <v>6000</v>
+      </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="20">
+        <v>4000</v>
+      </c>
     </row>
     <row r="7" s="11" customFormat="1" spans="1:39">
       <c r="A7" s="11">
@@ -8996,7 +9543,7 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>52000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -9030,13 +9577,17 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="20">
+        <v>13000</v>
+      </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AM7" s="20">
+        <v>5000</v>
+      </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:39">
       <c r="A8" s="11">
@@ -9059,7 +9610,7 @@
       </c>
       <c r="H8" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="I8" s="1">
         <v>2000</v>
@@ -9088,7 +9639,9 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="AB8" s="20">
+        <v>2000</v>
+      </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -9099,7 +9652,9 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
+      <c r="AM8" s="20">
+        <v>4000</v>
+      </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="1:39">
       <c r="A9" s="11">
@@ -9122,7 +9677,7 @@
       </c>
       <c r="H9" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -9153,7 +9708,9 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AH9" s="1">
+        <v>2000</v>
+      </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -9181,7 +9738,7 @@
       </c>
       <c r="H10" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="I10" s="1">
         <v>2500</v>
@@ -9212,12 +9769,16 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="AH10" s="1">
+        <v>5000</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
+      <c r="AM10" s="1">
+        <v>12000</v>
+      </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="1:39">
       <c r="A11" s="11">
@@ -9243,7 +9804,7 @@
       </c>
       <c r="H11" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -9272,7 +9833,9 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="20">
+        <v>2000</v>
+      </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -9297,7 +9860,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -9319,7 +9882,9 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>3600</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -9354,7 +9919,7 @@
       </c>
       <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9376,18 +9941,24 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="20">
+        <v>4000</v>
+      </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="1">
+        <v>6000</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+      <c r="AL13" s="20">
+        <v>6000</v>
+      </c>
       <c r="AM13" s="1"/>
     </row>
     <row r="14" s="11" customFormat="1" spans="1:39">
@@ -9414,7 +9985,7 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="I14" s="20">
         <v>1500</v>
@@ -9452,17 +10023,27 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="20">
+        <v>2000</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AF14" s="20">
+        <v>2000</v>
+      </c>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="AH14" s="20">
+        <v>2000</v>
+      </c>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+      <c r="AJ14" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AK14" s="20">
+        <v>2000</v>
+      </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
@@ -9487,7 +10068,7 @@
       </c>
       <c r="H15" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -9516,7 +10097,9 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AH15" s="1">
+        <v>6000</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -9547,7 +10130,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -9574,7 +10157,9 @@
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AB16" s="20">
+        <v>1000</v>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -9582,7 +10167,9 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="20">
+        <v>1000</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -9718,7 +10305,7 @@
       </c>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9742,19 +10329,25 @@
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1">
+        <v>1000</v>
+      </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="1">
+        <v>1000</v>
+      </c>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
+      <c r="AM19" s="20">
+        <v>3000</v>
+      </c>
     </row>
     <row r="20" s="11" customFormat="1" spans="1:39">
       <c r="A20" s="11">
@@ -9959,7 +10552,7 @@
       </c>
       <c r="H23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -9979,13 +10572,17 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1">
+        <v>8000</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AG23" s="20">
+        <v>6000</v>
+      </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -10011,7 +10608,7 @@
       </c>
       <c r="H24" s="12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -10035,7 +10632,9 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AC24" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -10071,7 +10670,7 @@
       </c>
       <c r="H25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -10099,7 +10698,9 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
+      <c r="AI25" s="1">
+        <v>7000</v>
+      </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -10129,7 +10730,7 @@
       </c>
       <c r="H26" s="12">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -10154,17 +10755,23 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AB26" s="20">
+        <v>4000</v>
+      </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="AE26" s="20">
+        <v>4000</v>
+      </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AL26" s="20">
+        <v>4000</v>
+      </c>
       <c r="AM26" s="1"/>
     </row>
     <row r="27" s="11" customFormat="1" spans="1:39">
@@ -10185,7 +10792,7 @@
       </c>
       <c r="H27" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -10205,7 +10812,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="1">
+        <v>2000</v>
+      </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -10240,7 +10849,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -10275,14 +10884,18 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+      <c r="AF28" s="20">
+        <v>4000</v>
+      </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
+      <c r="AM28" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="1:39">
       <c r="A29" s="11">
@@ -10305,7 +10918,7 @@
       </c>
       <c r="H29" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -10341,7 +10954,9 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
+      <c r="AK29" s="20">
+        <v>2000</v>
+      </c>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
@@ -10420,7 +11035,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -10446,7 +11061,9 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AC31" s="20">
+        <v>2000</v>
+      </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
@@ -10455,7 +11072,9 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AL31" s="20">
+        <v>2000</v>
+      </c>
       <c r="AM31" s="1"/>
     </row>
     <row r="32" s="11" customFormat="1" spans="1:39">
@@ -10479,7 +11098,7 @@
       </c>
       <c r="H32" s="12">
         <f t="shared" si="0"/>
-        <v>23000</v>
+        <v>40500</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -10503,13 +11122,17 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="20">
+        <v>12500</v>
+      </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AG32" s="20">
+        <v>5000</v>
+      </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -10532,7 +11155,7 @@
       </c>
       <c r="H33" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -10564,7 +11187,9 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
+      <c r="AI33" s="1">
+        <v>2000</v>
+      </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -10591,7 +11216,7 @@
       </c>
       <c r="H34" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -10617,7 +11242,9 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
@@ -10636,6 +11263,9 @@
       <c r="C35" s="11">
         <v>33</v>
       </c>
+      <c r="D35" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="F35" s="11" t="s">
         <v>51</v>
       </c>
@@ -10644,7 +11274,7 @@
       </c>
       <c r="H35" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -10668,11 +11298,15 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
+      <c r="AA35" s="1">
+        <v>1000</v>
+      </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
+      <c r="AE35" s="20">
+        <v>1000</v>
+      </c>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -10690,7 +11324,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E36" s="11">
         <v>7654800030</v>
@@ -10703,7 +11337,7 @@
       </c>
       <c r="H36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -10729,7 +11363,9 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
+      <c r="AG36" s="1">
+        <v>2000</v>
+      </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -10745,7 +11381,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>51</v>
@@ -10755,7 +11391,7 @@
       </c>
       <c r="H37" s="12">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -10792,9 +11428,13 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="20">
+        <v>2000</v>
+      </c>
       <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
+      <c r="AL37" s="20">
+        <v>4000</v>
+      </c>
       <c r="AM37" s="1"/>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:39">
@@ -10853,13 +11493,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -10869,7 +11509,7 @@
       </c>
       <c r="H39" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -10893,16 +11533,22 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
+      <c r="AA39" s="20">
+        <v>3000</v>
+      </c>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
+      <c r="AD39" s="20">
+        <v>1000</v>
+      </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AJ39" s="20">
+        <v>4000</v>
+      </c>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
@@ -10912,16 +11558,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -10931,7 +11577,7 @@
       </c>
       <c r="H40" s="12">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -10960,7 +11606,9 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
+      <c r="AF40" s="20">
+        <v>2000</v>
+      </c>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
@@ -10977,7 +11625,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>51</v>
@@ -11031,7 +11679,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>51</v>
@@ -11041,7 +11689,7 @@
       </c>
       <c r="H42" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -11063,7 +11711,9 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
+      <c r="AA42" s="20">
+        <v>2000</v>
+      </c>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -11085,7 +11735,7 @@
         <v>41</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E43" s="11">
         <v>8210095108</v>
@@ -11098,7 +11748,7 @@
       </c>
       <c r="H43" s="12">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -11123,12 +11773,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
+      <c r="AB43" s="20">
+        <v>5000</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
+      <c r="AG43" s="1">
+        <v>9000</v>
+      </c>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -11144,7 +11800,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>51</v>
@@ -11200,7 +11856,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>51</v>
@@ -11210,7 +11866,7 @@
       </c>
       <c r="H45" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -11234,17 +11890,23 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
+      <c r="AA45" s="1">
+        <v>4000</v>
+      </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="AE45" s="20">
+        <v>4000</v>
+      </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
+      <c r="AK45" s="20">
+        <v>5000</v>
+      </c>
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
     </row>
@@ -11253,13 +11915,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -11317,7 +11979,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>64</v>
@@ -11327,7 +11989,7 @@
       </c>
       <c r="H47" s="12">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="I47" s="20">
         <v>3000</v>
@@ -11353,9 +12015,13 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
+      <c r="AA47" s="20">
+        <v>2000</v>
+      </c>
       <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
+      <c r="AC47" s="20">
+        <v>2000</v>
+      </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
@@ -11364,7 +12030,9 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
+      <c r="AL47" s="20">
+        <v>6000</v>
+      </c>
       <c r="AM47" s="1"/>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:39">
@@ -11372,13 +12040,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E48" s="11">
         <v>7004729703</v>
@@ -11434,13 +12102,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -11453,7 +12121,7 @@
       </c>
       <c r="H49" s="12">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -11483,7 +12151,9 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
+      <c r="AE49" s="20">
+        <v>13000</v>
+      </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -11498,13 +12168,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -11556,13 +12226,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -11662,13 +12332,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -11678,7 +12348,7 @@
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -11704,11 +12374,15 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="AA53" s="20">
+        <v>4000</v>
+      </c>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
+      <c r="AE53" s="20">
+        <v>4000</v>
+      </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -11733,7 +12407,7 @@
       </c>
       <c r="H54" s="12">
         <f t="shared" si="0"/>
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -11765,7 +12439,9 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
+      <c r="AG54" s="20">
+        <v>10000</v>
+      </c>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -11778,13 +12454,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -11794,7 +12470,7 @@
       </c>
       <c r="H55" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -11818,14 +12494,18 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
+      <c r="AC55" s="20">
+        <v>2000</v>
+      </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
+      <c r="AJ55" s="20">
+        <v>2000</v>
+      </c>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
@@ -11835,13 +12515,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -11945,7 +12625,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E58" s="11">
         <v>7004211364</v>
@@ -11958,7 +12638,7 @@
       </c>
       <c r="H58" s="12">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -11991,7 +12671,9 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
+      <c r="AG58" s="20">
+        <v>2000</v>
+      </c>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -12004,13 +12686,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -12020,7 +12702,7 @@
       </c>
       <c r="H59" s="12">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="20">
@@ -12041,7 +12723,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="20">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -12050,7 +12732,9 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
+      <c r="AG59" s="1">
+        <v>15000</v>
+      </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -12066,7 +12750,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>77</v>
@@ -12076,7 +12760,7 @@
       </c>
       <c r="H60" s="12">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="I60" s="20">
         <v>5000</v>
@@ -12105,7 +12789,9 @@
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
+      <c r="AB60" s="20">
+        <v>5000</v>
+      </c>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -12126,7 +12812,7 @@
         <v>59</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E61" s="11">
         <v>9798805204</v>
@@ -12139,7 +12825,7 @@
       </c>
       <c r="H61" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="20">
@@ -12169,7 +12855,9 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
+      <c r="AG61" s="1">
+        <v>4000</v>
+      </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
@@ -12182,13 +12870,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -12201,7 +12889,7 @@
       </c>
       <c r="H62" s="12">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>37000</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -12227,15 +12915,21 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
+      <c r="AC62" s="20">
+        <v>9000</v>
+      </c>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="20">
+        <v>5000</v>
+      </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
+      <c r="AK62" s="20">
+        <v>8000</v>
+      </c>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
@@ -12296,16 +12990,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
@@ -12315,7 +13009,7 @@
       </c>
       <c r="H64" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -12332,7 +13026,9 @@
         <v>2000</v>
       </c>
       <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
+      <c r="V64" s="20">
+        <v>5000</v>
+      </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
@@ -12342,27 +13038,31 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
+      <c r="AF64" s="20">
+        <v>5000</v>
+      </c>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
+      <c r="AM64" s="20">
+        <v>5000</v>
+      </c>
     </row>
     <row r="65" s="11" customFormat="1" spans="1:39">
       <c r="A65" s="11">
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
@@ -12375,7 +13075,7 @@
       </c>
       <c r="H65" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I65" s="20">
         <v>2000</v>
@@ -12407,14 +13107,18 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
+      <c r="AE65" s="20">
+        <v>2000</v>
+      </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
+      <c r="AL65" s="20">
+        <v>2000</v>
+      </c>
       <c r="AM65" s="1"/>
     </row>
     <row r="66" s="11" customFormat="1" spans="1:39">
@@ -12422,13 +13126,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C66" s="11">
         <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>88</v>
@@ -12438,7 +13142,7 @@
       </c>
       <c r="H66" s="12">
         <f t="shared" ref="H66:H96" si="2">SUM(I66:AM66)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -12470,7 +13174,9 @@
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
+      <c r="AK66" s="20">
+        <v>1000</v>
+      </c>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
@@ -12482,7 +13188,7 @@
         <v>65</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>91</v>
@@ -12598,7 +13304,7 @@
       </c>
       <c r="H69" s="12">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -12621,7 +13327,9 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
+      <c r="AB69" s="1">
+        <v>2000</v>
+      </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
@@ -12631,7 +13339,9 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
+      <c r="AL69" s="20">
+        <v>2000</v>
+      </c>
       <c r="AM69" s="1"/>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:39">
@@ -12652,7 +13362,7 @@
       </c>
       <c r="H70" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -12684,7 +13394,9 @@
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
+      <c r="AM70" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:39">
       <c r="A71" s="11">
@@ -12701,7 +13413,7 @@
       </c>
       <c r="H71" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I71" s="1">
         <v>1000</v>
@@ -12737,7 +13449,9 @@
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
+      <c r="AM71" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:39">
       <c r="A72" s="11">
@@ -12747,7 +13461,7 @@
         <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>93</v>
@@ -12757,7 +13471,7 @@
       </c>
       <c r="H72" s="12">
         <f t="shared" si="2"/>
-        <v>46000</v>
+        <v>71000</v>
       </c>
       <c r="I72" s="1">
         <v>10000</v>
@@ -12791,17 +13505,23 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AC72" s="20">
+        <v>10000</v>
+      </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
+      <c r="AI72" s="1">
+        <v>5000</v>
+      </c>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
+      <c r="AM72" s="20">
+        <v>10000</v>
+      </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:39">
       <c r="A73" s="11">
@@ -12811,7 +13531,7 @@
         <v>71</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>93</v>
@@ -12821,7 +13541,7 @@
       </c>
       <c r="H73" s="12">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="20">
@@ -12850,7 +13570,9 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
+      <c r="AB73" s="1">
+        <v>6000</v>
+      </c>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
@@ -12860,7 +13582,9 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
+      <c r="AL73" s="20">
+        <v>6000</v>
+      </c>
       <c r="AM73" s="1"/>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:39">
@@ -12868,13 +13592,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E74" s="11">
         <v>8825370430</v>
@@ -13035,13 +13759,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E77" s="11">
         <v>6200769032</v>
@@ -13098,13 +13822,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>103</v>
@@ -13114,7 +13838,7 @@
       </c>
       <c r="H78" s="12">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -13149,26 +13873,30 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
+      <c r="AG78" s="20">
+        <v>8000</v>
+      </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
+      <c r="AM78" s="20">
+        <v>7000</v>
+      </c>
     </row>
     <row r="79" s="11" customFormat="1" spans="1:39">
       <c r="A79" s="11">
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C79" s="11">
         <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>103</v>
@@ -13178,7 +13906,7 @@
       </c>
       <c r="H79" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -13206,7 +13934,9 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
+      <c r="AG79" s="1">
+        <v>5000</v>
+      </c>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
@@ -13265,16 +13995,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>108</v>
@@ -13284,7 +14014,7 @@
       </c>
       <c r="H81" s="12">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -13313,7 +14043,9 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
+      <c r="AB81" s="20">
+        <v>2000</v>
+      </c>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
@@ -13474,13 +14206,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>114</v>
@@ -13490,7 +14222,7 @@
       </c>
       <c r="H85" s="12">
         <f t="shared" si="2"/>
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -13521,7 +14253,9 @@
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
+      <c r="AF85" s="20">
+        <v>10000</v>
+      </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -13589,13 +14323,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C87" s="11">
         <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E87" s="11">
         <v>7903552643</v>
@@ -13650,7 +14384,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E88" s="11">
         <v>9911430509</v>
@@ -13663,7 +14397,7 @@
       </c>
       <c r="H88" s="12">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -13695,7 +14429,9 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
+      <c r="AI88" s="20">
+        <v>4000</v>
+      </c>
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
@@ -13752,20 +14488,20 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>121</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="20">
@@ -13791,16 +14527,26 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
+      <c r="AA90" s="20">
+        <v>1000</v>
+      </c>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
+      <c r="AC90" s="20">
+        <v>1000</v>
+      </c>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
+      <c r="AF90" s="20">
+        <v>1000</v>
+      </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
+      <c r="AI90" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AJ90" s="20">
+        <v>1000</v>
+      </c>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
@@ -13859,13 +14605,13 @@
         <v>90</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E92" s="11">
         <v>9015378357</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>123</v>
@@ -13962,7 +14708,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>125</v>
@@ -14626,11 +15372,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D94"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -14655,7 +15401,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14666,14 +15412,14 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>263500</v>
+        <v>269900</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>263500</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="1:4">
+        <v>269900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -14700,7 +15446,7 @@
       </c>
       <c r="D4" s="10">
         <f>Orders!F4-Collection!H4</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14715,10 +15461,10 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -14745,10 +15491,10 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -14763,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -14790,10 +15536,10 @@
       </c>
       <c r="D10" s="10">
         <f>Orders!F10-Collection!H10</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -14820,7 +15566,7 @@
       </c>
       <c r="D12" s="10">
         <f>Orders!F12-Collection!H12</f>
-        <v>3600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14835,7 +15581,7 @@
       </c>
       <c r="D13" s="10">
         <f>Orders!F13-Collection!H13</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -14865,7 +15611,7 @@
       </c>
       <c r="D15" s="10">
         <f>Orders!F15-Collection!H15</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -14880,7 +15626,7 @@
       </c>
       <c r="D16" s="10">
         <f>Orders!F16-Collection!H16</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14925,10 +15671,10 @@
       </c>
       <c r="D19" s="10">
         <f>Orders!F19-Collection!H19</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -14943,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -14955,7 +15701,7 @@
       </c>
       <c r="D21" s="10">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -14985,7 +15731,7 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -15000,7 +15746,7 @@
       </c>
       <c r="D24" s="10">
         <f>Orders!F24-Collection!H24</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -15015,7 +15761,7 @@
       </c>
       <c r="D25" s="10">
         <f>Orders!F25-Collection!H25</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -15045,7 +15791,7 @@
       </c>
       <c r="D27" s="10">
         <f>Orders!F27-Collection!H27</f>
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -15063,7 +15809,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -15078,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -15090,10 +15836,10 @@
       </c>
       <c r="D30" s="10">
         <f>Orders!F30-Collection!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -15120,7 +15866,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -15135,10 +15881,10 @@
       </c>
       <c r="D33" s="10">
         <f>Orders!F33-Collection!H33</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -15150,7 +15896,7 @@
       </c>
       <c r="D34" s="10">
         <f>Orders!F34-Collection!H34</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -15165,10 +15911,10 @@
       </c>
       <c r="D35" s="10">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -15183,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
@@ -15198,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -15225,10 +15971,10 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -15240,10 +15986,10 @@
       </c>
       <c r="D40" s="10">
         <f>Orders!F40-Collection!H40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
@@ -15285,10 +16031,10 @@
       </c>
       <c r="D43" s="10">
         <f>Orders!F43-Collection!H43</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -15300,7 +16046,7 @@
       </c>
       <c r="D44" s="10">
         <f>Orders!F44-Collection!H44</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -15315,10 +16061,10 @@
       </c>
       <c r="D45" s="10">
         <f>Orders!F45-Collection!H45</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -15330,7 +16076,7 @@
       </c>
       <c r="D46" s="10">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -15345,10 +16091,10 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -15360,7 +16106,7 @@
       </c>
       <c r="D48" s="10">
         <f>Orders!F48-Collection!H48</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -15375,7 +16121,7 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -15390,10 +16136,10 @@
       </c>
       <c r="D50" s="10">
         <f>Orders!F50-Collection!H50</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
@@ -15405,10 +16151,10 @@
       </c>
       <c r="D51" s="10">
         <f>Orders!F51-Collection!H51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>64</v>
       </c>
@@ -15450,10 +16196,10 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
@@ -15483,7 +16229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>64</v>
       </c>
@@ -15498,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -15510,7 +16256,7 @@
       </c>
       <c r="D58" s="10">
         <f>Orders!F58-Collection!H58</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -15525,10 +16271,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -15543,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
@@ -15570,7 +16316,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>9000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -15600,10 +16346,10 @@
       </c>
       <c r="D64" s="10">
         <f>Orders!F64-Collection!H64</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
@@ -15645,10 +16391,10 @@
       </c>
       <c r="D67" s="10">
         <f>Orders!F67-Collection!H67</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>93</v>
       </c>
@@ -15660,7 +16406,7 @@
       </c>
       <c r="D68" s="10">
         <f>Orders!F68-Collection!H68</f>
-        <v>-2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -15675,7 +16421,7 @@
       </c>
       <c r="D69" s="10">
         <f>Orders!F69-Collection!H69</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -15690,10 +16436,10 @@
       </c>
       <c r="D70" s="10">
         <f>Orders!F70-Collection!H70</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>93</v>
       </c>
@@ -15720,7 +16466,7 @@
       </c>
       <c r="D72" s="10">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15735,10 +16481,10 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -15750,10 +16496,10 @@
       </c>
       <c r="D74" s="10">
         <f>Orders!F74-Collection!H74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -15795,7 +16541,7 @@
       </c>
       <c r="D77" s="10">
         <f>Orders!F77-Collection!H77</f>
-        <v>4300</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -15810,10 +16556,10 @@
       </c>
       <c r="D78" s="10">
         <f>Orders!F78-Collection!H78</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>103</v>
       </c>
@@ -15825,10 +16571,10 @@
       </c>
       <c r="D79" s="10">
         <f>Orders!F79-Collection!H79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -15839,7 +16585,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>108</v>
       </c>
@@ -15851,10 +16597,10 @@
       </c>
       <c r="D81" s="10">
         <f>Orders!F81-Collection!H81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -15865,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>111</v>
       </c>
@@ -15877,10 +16623,10 @@
       </c>
       <c r="D83" s="10">
         <f>Orders!F83-Collection!H83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -15906,7 +16652,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -15918,10 +16664,10 @@
       </c>
       <c r="D86" s="10">
         <f>Orders!F86-Collection!H86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -15936,7 +16682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -15951,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -15963,7 +16709,9 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="8"/>
+      <c r="A90" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B90" s="8">
         <v>9905739212</v>
       </c>
@@ -15975,7 +16723,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -15999,7 +16747,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -16020,10 +16768,10 @@
       </c>
       <c r="D94" s="10">
         <f>Orders!F94-Collection!H94</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -16034,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -16047,27 +16795,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1000"/>
-        <filter val="1100"/>
-        <filter val="2000"/>
-        <filter val="3000"/>
-        <filter val="3600"/>
-        <filter val="4000"/>
-        <filter val="4300"/>
-        <filter val="4500"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="6500"/>
-        <filter val="7000"/>
-        <filter val="8000"/>
-        <filter val="9000"/>
-        <filter val="12500"/>
-        <filter val="15000"/>
-        <filter val="263500"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/May2021Recharge.xlsx
+++ b/Recharge/May2021Recharge.xlsx
@@ -944,8 +944,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -967,14 +967,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,14 +982,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,15 +1005,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,16 +1074,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,7 +1097,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,19 +1184,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,25 +1256,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,91 +1280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,19 +1298,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,7 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,16 +1394,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,16 +1468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1513,31 +1513,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,88 +1555,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2068,11 +2068,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S41" sqref="S41"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8966,11 +8966,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AI66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -15375,8 +15375,8 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -16114,7 +16114,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="8">
-        <v>8863097933</v>
+        <v>7479799801</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>68</v>
